--- a/Recycling/SG2/SG2_Min.xlsx
+++ b/Recycling/SG2/SG2_Min.xlsx
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09567321166466103</v>
+        <v>0.08783275431438219</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003724077417960356</v>
+        <v>0.007300959605753277</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="E8">
         <v>0.07999999999999996</v>
       </c>
-      <c r="E8">
-        <v>0.07999999999999995</v>
-      </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09560066507337249</v>
+        <v>0.08757842632923764</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003757173779380623</v>
+        <v>0.00741698615870538</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1033087865446044</v>
+        <v>0.1025858175017636</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002406643259093721</v>
+        <v>0.0005704888471244834</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -1569,7 +1569,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1032179522704649</v>
+        <v>0.1023722612708773</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.000282103681127487</v>
+        <v>0.0006679149849405313</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.103126902499049</v>
+        <v>0.1021587136506733</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0003236413480046088</v>
+        <v>0.000765337194491407</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1990,19 +1990,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.103038006327942</v>
+        <v>0.1019507129994328</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0003641965244171643</v>
+        <v>0.0008602288304295634</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -2220,7 +2220,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1029528885977569</v>
+        <v>0.101752010790663</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004030279444941569</v>
+        <v>0.0009508784391795807</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2426,7 +2426,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -2435,13 +2435,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1028725263874214</v>
+        <v>0.1015648195126475</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004396898566606426</v>
+        <v>0.001036276665090458</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2644,13 +2644,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1027972193626683</v>
+        <v>0.101389763309718</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004740455509040852</v>
+        <v>0.001116138768300427</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="E8">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="E8">
-        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1027261899147171</v>
+        <v>0.1012249686880393</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005064497788508741</v>
+        <v>0.001191319452359028</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -3095,7 +3095,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1026561851276865</v>
+        <v>0.1010628526236586</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005383865479197077</v>
+        <v>0.001265278156186143</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -3307,13 +3307,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1025775356423292</v>
+        <v>0.1008810729731926</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005742671006330829</v>
+        <v>0.001348207552368878</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -3743,13 +3743,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1024641483423679</v>
+        <v>0.1006196651876614</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0006259953347696746</v>
+        <v>0.001467463969443041</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1022519322762454</v>
+        <v>0.1001324971147054</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0007228100782170281</v>
+        <v>0.00168971411694954</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4176,16 +4176,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="E8">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="E8">
-        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1018322698468131</v>
+        <v>0.09917702871189425</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0009142635868148687</v>
+        <v>0.002125606789829459</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4388,13 +4388,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -4403,7 +4403,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1013770045329156</v>
+        <v>0.09815221552856472</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001121959428938379</v>
+        <v>0.002593135131289845</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -4621,7 +4621,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1018141611699866</v>
+        <v>0.09913592284731346</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0009225249165678752</v>
+        <v>0.002144359628887716</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,13 +4824,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1027369627451186</v>
+        <v>0.1012494860928629</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005015351235630602</v>
+        <v>0.001180134407318102</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5042,16 +5042,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="E8">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="E8">
-        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1026985732306122</v>
+        <v>0.1011592412499352</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005190487410092325</v>
+        <v>0.001221304859089909</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -5266,7 +5266,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1020925226593576</v>
+        <v>0.0997620405554553</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0007955340780725777</v>
+        <v>0.001858719496219353</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5487,13 +5487,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1015114183214573</v>
+        <v>0.09843229202487801</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001060638734934305</v>
+        <v>0.002465361892290359</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -5696,7 +5696,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -5705,13 +5705,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1007881127675177</v>
+        <v>0.09677739745131222</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001390616775325825</v>
+        <v>0.00322033863132614</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1001491855159587</v>
+        <v>0.09525656695363163</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001682100728786228</v>
+        <v>0.003914154218195239</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09973562249342377</v>
+        <v>0.09405287870190972</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001870771636967644</v>
+        <v>0.004463286861214683</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6577,13 +6577,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09894389046650293</v>
+        <v>0.09180035048445535</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.002231966406364312</v>
+        <v>0.005490909064685609</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6763,7 +6763,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6798,10 +6798,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09637889063748052</v>
+        <v>0.08569842213611516</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003402140771230395</v>
+        <v>0.008274659788052606</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7004,22 +7004,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09307391034666954</v>
+        <v>0.07835814712092555</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004909900408847449</v>
+        <v>0.01162335461315734</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09025716039381533</v>
+        <v>0.07237308437113434</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.006194925284784375</v>
+        <v>0.01435379027349413</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -7440,7 +7440,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -7449,7 +7449,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08769909382697788</v>
+        <v>0.06776100296794794</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007361936637481051</v>
+        <v>0.01645786036567079</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -7670,10 +7670,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08783936516613672</v>
+        <v>0.06901346983850579</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007297943679917508</v>
+        <v>0.01588647450895929</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7882,13 +7882,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08749963305051214</v>
+        <v>0.06895256219612061</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007452932311155396</v>
+        <v>0.01591426108459065</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -8109,7 +8109,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08690093563695787</v>
+        <v>0.06869614740876523</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007726063076204934</v>
+        <v>0.01603123965415657</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08878937769551982</v>
+        <v>0.07362913426856381</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.006864540022105418</v>
+        <v>0.01378076980997042</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -8748,13 +8748,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -8763,7 +8763,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09239737680552698</v>
+        <v>0.08109842492509807</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005218540665996653</v>
+        <v>0.01037321697074029</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09581014975565859</v>
+        <v>0.08793662070402397</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00366160511607325</v>
+        <v>0.007253574890497236</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -9199,7 +9199,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09617181874981993</v>
+        <v>0.08875788647956583</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003496608697459133</v>
+        <v>0.006878906578083654</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9402,10 +9402,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
-        <v>0.2764705882352941</v>
+        <v>0.2764705882352942</v>
       </c>
       <c r="D8">
         <v>0.07999999999999996</v>
@@ -9417,7 +9417,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09579444947052762</v>
+        <v>0.088014548165487</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003668767717401124</v>
+        <v>0.007218023731120397</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
         <v>0.09999999999999996</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09570037271148116</v>
+        <v>0.08782652524948123</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003711686321340294</v>
+        <v>0.007303801357234778</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9844,7 +9844,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -9853,7 +9853,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09567171438301351</v>
+        <v>0.08774482321326293</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003724760490364912</v>
+        <v>0.007341074509169624</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -10071,7 +10071,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09564021933993727</v>
+        <v>0.08764926866417347</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003739128792308319</v>
+        <v>0.007384667293280423</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351599</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10274,22 +10274,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09562044697588418</v>
+        <v>0.08758711940028018</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003748149110082188</v>
+        <v>0.007413020307023492</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10492,7 +10492,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -10507,7 +10507,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09560718394796318</v>
+        <v>0.08754222447955566</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003754199814295913</v>
+        <v>0.007433501745170244</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09559371605916296</v>
+        <v>0.08749249381142091</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003760343977755327</v>
+        <v>0.00745618929171137</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09557405548971855</v>
+        <v>0.08741767288618771</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003769313293894138</v>
+        <v>0.007490323223290163</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,7 +11338,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -11364,7 +11364,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -11373,13 +11373,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09553599958625895</v>
+        <v>0.0872799932168548</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003786674715191868</v>
+        <v>0.007553133839413287</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11588,7 +11588,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09547142366362643</v>
+        <v>0.08706072167646137</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003816134790938133</v>
+        <v>0.007653167349205321</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11800,7 +11800,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0953911104953284</v>
+        <v>0.08680590579004555</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003852774329717108</v>
+        <v>0.007769416486796129</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11995,7 +11995,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09532239142601982</v>
+        <v>0.08661487564995722</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003884124543612833</v>
+        <v>0.007856566033676736</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12236,7 +12236,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09524427283709161</v>
+        <v>0.0864813981277081</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00391976289693707</v>
+        <v>0.007917459595171161</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12431,7 +12431,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12460,16 +12460,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09512978850401255</v>
+        <v>0.08664436970625418</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00397199160675299</v>
+        <v>0.00784311059862988</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12672,7 +12672,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -12681,13 +12681,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09539102481666947</v>
+        <v>0.08868024316767445</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003852813417037567</v>
+        <v>0.006914328106050469</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12890,7 +12890,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -12899,13 +12899,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09556811819410993</v>
+        <v>0.08979614620411999</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003772021937785354</v>
+        <v>0.006405243812106308</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,7 +13300,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09564266758005843</v>
+        <v>0.09087435336467851</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003738011884698262</v>
+        <v>0.005913356691871487</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09592652789515749</v>
+        <v>0.09328419459340502</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003608512435936772</v>
+        <v>0.004813966977554075</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13736,7 +13736,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -13762,7 +13762,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -13777,7 +13777,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09610011485149011</v>
+        <v>0.09507761818117025</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003529320615306905</v>
+        <v>0.00399579214416672</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13957,7 +13957,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13980,7 +13980,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -13995,7 +13995,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09564143579492676</v>
+        <v>0.09231859248091201</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003738573835372796</v>
+        <v>0.00525448273350659</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351603</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,10 +14198,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
-        <v>0.2764705882352941</v>
+        <v>0.2764705882352942</v>
       </c>
       <c r="D8">
         <v>0.07999999999999996</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0955846231637042</v>
+        <v>0.08875858135606876</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00376449223267834</v>
+        <v>0.006878589569613999</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14416,7 +14416,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -14431,7 +14431,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09558148969517527</v>
+        <v>0.08735029908769877</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003765921747216381</v>
+        <v>0.007521059713391775</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14634,7 +14634,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09557519846007134</v>
+        <v>0.08732761865911272</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003768791861264213</v>
+        <v>0.007531406714516415</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14855,19 +14855,19 @@
         <v>0.2111111111111111</v>
       </c>
       <c r="C8">
-        <v>0.2764705882352941</v>
+        <v>0.2764705882352942</v>
       </c>
       <c r="D8">
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09555948355054379</v>
+        <v>0.08738852295400537</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003775961134364055</v>
+        <v>0.007503621666039123</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15070,7 +15070,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -15082,7 +15082,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09551902563286337</v>
+        <v>0.08726673870851108</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003794418374629655</v>
+        <v>0.007559180656924636</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15294,7 +15294,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -15303,7 +15303,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09542159811070247</v>
+        <v>0.0869295926299008</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00383886562471331</v>
+        <v>0.007712989516457862</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15724,13 +15724,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09524037113311282</v>
+        <v>0.08576896047378339</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003921542886909625</v>
+        <v>0.008242479608722495</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,7 +15916,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -15951,7 +15951,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09521955811976027</v>
+        <v>0.07899818700441397</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003931037957593537</v>
+        <v>0.01133136306770937</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16134,7 +16134,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -16175,7 +16175,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09517570168014032</v>
+        <v>0.08620695584599704</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003951045631978879</v>
+        <v>0.008042662458368252</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,7 +16352,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -16378,7 +16378,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -16387,7 +16387,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09504033487791595</v>
+        <v>0.0918343150209634</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004012801098791995</v>
+        <v>0.005475414159194172</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16599,7 +16599,7 @@
         <v>0.211111111111111</v>
       </c>
       <c r="C8">
-        <v>0.276470588235294</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="D8">
         <v>0.07999999999999996</v>
@@ -16611,7 +16611,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0949018827863221</v>
+        <v>0.09161330770934975</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004075964100407861</v>
+        <v>0.005576239542327567</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16788,7 +16788,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0948624308632833</v>
+        <v>0.09140127699455022</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004093962397508048</v>
+        <v>0.005672969726951861</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17006,7 +17006,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -17032,7 +17032,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09545833262505743</v>
+        <v>0.09117247811555525</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003822107032171676</v>
+        <v>0.005777349688260497</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17265,7 +17265,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09635317592736295</v>
+        <v>0.09086534437961026</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003413872036955666</v>
+        <v>0.005917466666172866</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17477,7 +17477,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09625730509410442</v>
+        <v>0.09035491778376387</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003457609112548473</v>
+        <v>0.006150327546258371</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09604447985103232</v>
+        <v>0.08950918454675356</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00355470176761281</v>
+        <v>0.006536158119136748</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18099,7 +18099,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18131,13 +18131,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09580657510176707</v>
+        <v>0.08860640345933118</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003663235903061925</v>
+        <v>0.006948014398281309</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18340,13 +18340,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -18355,7 +18355,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09569607791774577</v>
+        <v>0.0882025422735031</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003713645642145956</v>
+        <v>0.007132259247451734</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18558,7 +18558,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -18570,10 +18570,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09564330232147192</v>
+        <v>0.08784564001933921</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00373772231035913</v>
+        <v>0.007295081039430057</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18750,7 +18750,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -18788,7 +18788,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999996</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09558732188564059</v>
+        <v>0.0872098697286964</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003763261053170188</v>
+        <v>0.007585124760928948</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18971,7 +18971,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,19 +18994,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999999</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09558726598473739</v>
+        <v>0.08671914747698886</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003763286555629548</v>
+        <v>0.007808996354494083</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19212,7 +19212,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -19227,7 +19227,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09560457672922493</v>
+        <v>0.08664457733470839</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003755389249280112</v>
+        <v>0.007843015876793339</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19430,7 +19430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -19439,7 +19439,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09560547894444194</v>
+        <v>0.08698948131232095</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003754977651155777</v>
+        <v>0.00768566779888084</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351603</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19654,16 +19654,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0955985669313805</v>
+        <v>0.08742049968386872</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003758130969297408</v>
+        <v>0.007489033614556636</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,7 +19840,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -19881,7 +19881,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09559265894446542</v>
+        <v>0.08761575107781729</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003760826242317602</v>
+        <v>0.007399958296376197</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20061,7 +20061,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20090,7 +20090,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
         <v>0.07999999999999996</v>
@@ -20099,7 +20099,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09559446859632177</v>
+        <v>0.08766678302547271</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003760000664012424</v>
+        <v>0.007376677095239298</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20497,7 +20497,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20520,7 +20520,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09560250667117144</v>
+        <v>0.08775798052817059</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003756333627069374</v>
+        <v>0.007335072032116331</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20738,7 +20738,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -20750,7 +20750,7 @@
         <v>0.07999999999999997</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
         <v>0.09999999999999998</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09559027229507182</v>
+        <v>0.08777718011600998</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003761915051722858</v>
+        <v>0.007326313019639438</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20933,7 +20933,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20962,16 +20962,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09556743293502792</v>
+        <v>0.08772051964274936</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003772334558707195</v>
+        <v>0.007352162001210716</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21151,7 +21151,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21189,7 +21189,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09556291322441647</v>
+        <v>0.08766458648610577</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003774396488471981</v>
+        <v>0.007377679174861104</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21392,7 +21392,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
@@ -21407,7 +21407,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09560823009389072</v>
+        <v>0.08765226135800476</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003753722553778211</v>
+        <v>0.007383302001336296</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21587,7 +21587,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21622,10 +21622,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09570998400909815</v>
+        <v>0.08768946265816151</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003707301567018977</v>
+        <v>0.00736633045720964</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,7 +21802,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -21837,13 +21837,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09580344784121274</v>
+        <v>0.08776848189464705</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003664662585470058</v>
+        <v>0.007330281220940526</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22023,7 +22023,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="C7">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,16 +22046,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>
       </c>
       <c r="D8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
         <v>0.04000000000000004</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09580467779001456</v>
+        <v>0.08786943361008387</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003664101472544556</v>
+        <v>0.007284226204422864</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22279,7 +22279,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09574024672134025</v>
+        <v>0.08792146281548256</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003693495464704135</v>
+        <v>0.007260490045966634</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22456,7 +22456,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -22491,13 +22491,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="E8">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="G8">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SG2/SG2_Min.xlsx
+++ b/Recycling/SG2/SG2_Min.xlsx
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06776100296794794</v>
+        <v>0.06776100296794793</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7632,7 +7632,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.07899818700441397</v>
+        <v>0.07899818700441395</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01133136306770937</v>
+        <v>0.01133136306770936</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16134,7 +16134,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09161330770934975</v>
+        <v>0.09161330770934972</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005576239542327567</v>
+        <v>0.005576239542327565</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16788,7 +16788,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09086534437961026</v>
+        <v>0.09086534437961027</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005917466666172866</v>
+        <v>0.005917466666172867</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17468,7 +17468,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>

--- a/Recycling/SG2/SG2_Min.xlsx
+++ b/Recycling/SG2/SG2_Min.xlsx
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06776100296794793</v>
+        <v>0.06776100296794794</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7632,7 +7632,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.07899818700441395</v>
+        <v>0.07899818700441397</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01133136306770936</v>
+        <v>0.01133136306770937</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16134,7 +16134,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09161330770934972</v>
+        <v>0.09161330770934975</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005576239542327565</v>
+        <v>0.005576239542327567</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16788,7 +16788,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="C7">
         <v>0.05444909143351601</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09086534437961027</v>
+        <v>0.09086534437961026</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005917466666172867</v>
+        <v>0.005917466666172866</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17468,7 +17468,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="C8">
         <v>0.2764705882352941</v>

--- a/Recycling/SG2/SG2_Min.xlsx
+++ b/Recycling/SG2/SG2_Min.xlsx
@@ -7,114 +7,103 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2000" sheetId="1" r:id="rId1"/>
-    <sheet name="2001" sheetId="2" r:id="rId2"/>
-    <sheet name="2002" sheetId="3" r:id="rId3"/>
-    <sheet name="2003" sheetId="4" r:id="rId4"/>
-    <sheet name="2004" sheetId="5" r:id="rId5"/>
-    <sheet name="2005" sheetId="6" r:id="rId6"/>
-    <sheet name="2006" sheetId="7" r:id="rId7"/>
-    <sheet name="2007" sheetId="8" r:id="rId8"/>
-    <sheet name="2008" sheetId="9" r:id="rId9"/>
-    <sheet name="2009" sheetId="10" r:id="rId10"/>
-    <sheet name="2010" sheetId="11" r:id="rId11"/>
-    <sheet name="2011" sheetId="12" r:id="rId12"/>
-    <sheet name="2012" sheetId="13" r:id="rId13"/>
-    <sheet name="2013" sheetId="14" r:id="rId14"/>
-    <sheet name="2014" sheetId="15" r:id="rId15"/>
-    <sheet name="2015" sheetId="16" r:id="rId16"/>
-    <sheet name="2016" sheetId="17" r:id="rId17"/>
-    <sheet name="2017" sheetId="18" r:id="rId18"/>
-    <sheet name="2018" sheetId="19" r:id="rId19"/>
-    <sheet name="2019" sheetId="20" r:id="rId20"/>
-    <sheet name="2020" sheetId="21" r:id="rId21"/>
-    <sheet name="2021" sheetId="22" r:id="rId22"/>
-    <sheet name="2022" sheetId="23" r:id="rId23"/>
-    <sheet name="2023" sheetId="24" r:id="rId24"/>
-    <sheet name="2024" sheetId="25" r:id="rId25"/>
-    <sheet name="2025" sheetId="26" r:id="rId26"/>
-    <sheet name="2026" sheetId="27" r:id="rId27"/>
-    <sheet name="2027" sheetId="28" r:id="rId28"/>
-    <sheet name="2028" sheetId="29" r:id="rId29"/>
-    <sheet name="2029" sheetId="30" r:id="rId30"/>
-    <sheet name="2030" sheetId="31" r:id="rId31"/>
-    <sheet name="2031" sheetId="32" r:id="rId32"/>
-    <sheet name="2032" sheetId="33" r:id="rId33"/>
-    <sheet name="2033" sheetId="34" r:id="rId34"/>
-    <sheet name="2034" sheetId="35" r:id="rId35"/>
-    <sheet name="2035" sheetId="36" r:id="rId36"/>
-    <sheet name="2036" sheetId="37" r:id="rId37"/>
-    <sheet name="2037" sheetId="38" r:id="rId38"/>
-    <sheet name="2038" sheetId="39" r:id="rId39"/>
-    <sheet name="2039" sheetId="40" r:id="rId40"/>
-    <sheet name="2040" sheetId="41" r:id="rId41"/>
-    <sheet name="2041" sheetId="42" r:id="rId42"/>
-    <sheet name="2042" sheetId="43" r:id="rId43"/>
-    <sheet name="2043" sheetId="44" r:id="rId44"/>
-    <sheet name="2044" sheetId="45" r:id="rId45"/>
-    <sheet name="2045" sheetId="46" r:id="rId46"/>
-    <sheet name="2046" sheetId="47" r:id="rId47"/>
-    <sheet name="2047" sheetId="48" r:id="rId48"/>
-    <sheet name="2048" sheetId="49" r:id="rId49"/>
-    <sheet name="2049" sheetId="50" r:id="rId50"/>
-    <sheet name="2050" sheetId="51" r:id="rId51"/>
-    <sheet name="2051" sheetId="52" r:id="rId52"/>
-    <sheet name="2052" sheetId="53" r:id="rId53"/>
-    <sheet name="2053" sheetId="54" r:id="rId54"/>
-    <sheet name="2054" sheetId="55" r:id="rId55"/>
-    <sheet name="2055" sheetId="56" r:id="rId56"/>
-    <sheet name="2056" sheetId="57" r:id="rId57"/>
-    <sheet name="2057" sheetId="58" r:id="rId58"/>
-    <sheet name="2058" sheetId="59" r:id="rId59"/>
-    <sheet name="2059" sheetId="60" r:id="rId60"/>
-    <sheet name="2060" sheetId="61" r:id="rId61"/>
-    <sheet name="2061" sheetId="62" r:id="rId62"/>
-    <sheet name="2062" sheetId="63" r:id="rId63"/>
-    <sheet name="2063" sheetId="64" r:id="rId64"/>
-    <sheet name="2064" sheetId="65" r:id="rId65"/>
-    <sheet name="2065" sheetId="66" r:id="rId66"/>
-    <sheet name="2066" sheetId="67" r:id="rId67"/>
-    <sheet name="2067" sheetId="68" r:id="rId68"/>
-    <sheet name="2068" sheetId="69" r:id="rId69"/>
-    <sheet name="2069" sheetId="70" r:id="rId70"/>
-    <sheet name="2070" sheetId="71" r:id="rId71"/>
-    <sheet name="2071" sheetId="72" r:id="rId72"/>
-    <sheet name="2072" sheetId="73" r:id="rId73"/>
-    <sheet name="2073" sheetId="74" r:id="rId74"/>
-    <sheet name="2074" sheetId="75" r:id="rId75"/>
-    <sheet name="2075" sheetId="76" r:id="rId76"/>
-    <sheet name="2076" sheetId="77" r:id="rId77"/>
-    <sheet name="2077" sheetId="78" r:id="rId78"/>
-    <sheet name="2078" sheetId="79" r:id="rId79"/>
-    <sheet name="2079" sheetId="80" r:id="rId80"/>
-    <sheet name="2080" sheetId="81" r:id="rId81"/>
-    <sheet name="2081" sheetId="82" r:id="rId82"/>
-    <sheet name="2082" sheetId="83" r:id="rId83"/>
-    <sheet name="2083" sheetId="84" r:id="rId84"/>
-    <sheet name="2084" sheetId="85" r:id="rId85"/>
-    <sheet name="2085" sheetId="86" r:id="rId86"/>
-    <sheet name="2086" sheetId="87" r:id="rId87"/>
-    <sheet name="2087" sheetId="88" r:id="rId88"/>
-    <sheet name="2088" sheetId="89" r:id="rId89"/>
-    <sheet name="2089" sheetId="90" r:id="rId90"/>
-    <sheet name="2090" sheetId="91" r:id="rId91"/>
-    <sheet name="2091" sheetId="92" r:id="rId92"/>
-    <sheet name="2092" sheetId="93" r:id="rId93"/>
-    <sheet name="2093" sheetId="94" r:id="rId94"/>
-    <sheet name="2094" sheetId="95" r:id="rId95"/>
-    <sheet name="2095" sheetId="96" r:id="rId96"/>
-    <sheet name="2096" sheetId="97" r:id="rId97"/>
-    <sheet name="2097" sheetId="98" r:id="rId98"/>
-    <sheet name="2098" sheetId="99" r:id="rId99"/>
-    <sheet name="2099" sheetId="100" r:id="rId100"/>
-    <sheet name="2100" sheetId="101" r:id="rId101"/>
+    <sheet name="2011" sheetId="1" r:id="rId1"/>
+    <sheet name="2012" sheetId="2" r:id="rId2"/>
+    <sheet name="2013" sheetId="3" r:id="rId3"/>
+    <sheet name="2014" sheetId="4" r:id="rId4"/>
+    <sheet name="2015" sheetId="5" r:id="rId5"/>
+    <sheet name="2016" sheetId="6" r:id="rId6"/>
+    <sheet name="2017" sheetId="7" r:id="rId7"/>
+    <sheet name="2018" sheetId="8" r:id="rId8"/>
+    <sheet name="2019" sheetId="9" r:id="rId9"/>
+    <sheet name="2020" sheetId="10" r:id="rId10"/>
+    <sheet name="2021" sheetId="11" r:id="rId11"/>
+    <sheet name="2022" sheetId="12" r:id="rId12"/>
+    <sheet name="2023" sheetId="13" r:id="rId13"/>
+    <sheet name="2024" sheetId="14" r:id="rId14"/>
+    <sheet name="2025" sheetId="15" r:id="rId15"/>
+    <sheet name="2026" sheetId="16" r:id="rId16"/>
+    <sheet name="2027" sheetId="17" r:id="rId17"/>
+    <sheet name="2028" sheetId="18" r:id="rId18"/>
+    <sheet name="2029" sheetId="19" r:id="rId19"/>
+    <sheet name="2030" sheetId="20" r:id="rId20"/>
+    <sheet name="2031" sheetId="21" r:id="rId21"/>
+    <sheet name="2032" sheetId="22" r:id="rId22"/>
+    <sheet name="2033" sheetId="23" r:id="rId23"/>
+    <sheet name="2034" sheetId="24" r:id="rId24"/>
+    <sheet name="2035" sheetId="25" r:id="rId25"/>
+    <sheet name="2036" sheetId="26" r:id="rId26"/>
+    <sheet name="2037" sheetId="27" r:id="rId27"/>
+    <sheet name="2038" sheetId="28" r:id="rId28"/>
+    <sheet name="2039" sheetId="29" r:id="rId29"/>
+    <sheet name="2040" sheetId="30" r:id="rId30"/>
+    <sheet name="2041" sheetId="31" r:id="rId31"/>
+    <sheet name="2042" sheetId="32" r:id="rId32"/>
+    <sheet name="2043" sheetId="33" r:id="rId33"/>
+    <sheet name="2044" sheetId="34" r:id="rId34"/>
+    <sheet name="2045" sheetId="35" r:id="rId35"/>
+    <sheet name="2046" sheetId="36" r:id="rId36"/>
+    <sheet name="2047" sheetId="37" r:id="rId37"/>
+    <sheet name="2048" sheetId="38" r:id="rId38"/>
+    <sheet name="2049" sheetId="39" r:id="rId39"/>
+    <sheet name="2050" sheetId="40" r:id="rId40"/>
+    <sheet name="2051" sheetId="41" r:id="rId41"/>
+    <sheet name="2052" sheetId="42" r:id="rId42"/>
+    <sheet name="2053" sheetId="43" r:id="rId43"/>
+    <sheet name="2054" sheetId="44" r:id="rId44"/>
+    <sheet name="2055" sheetId="45" r:id="rId45"/>
+    <sheet name="2056" sheetId="46" r:id="rId46"/>
+    <sheet name="2057" sheetId="47" r:id="rId47"/>
+    <sheet name="2058" sheetId="48" r:id="rId48"/>
+    <sheet name="2059" sheetId="49" r:id="rId49"/>
+    <sheet name="2060" sheetId="50" r:id="rId50"/>
+    <sheet name="2061" sheetId="51" r:id="rId51"/>
+    <sheet name="2062" sheetId="52" r:id="rId52"/>
+    <sheet name="2063" sheetId="53" r:id="rId53"/>
+    <sheet name="2064" sheetId="54" r:id="rId54"/>
+    <sheet name="2065" sheetId="55" r:id="rId55"/>
+    <sheet name="2066" sheetId="56" r:id="rId56"/>
+    <sheet name="2067" sheetId="57" r:id="rId57"/>
+    <sheet name="2068" sheetId="58" r:id="rId58"/>
+    <sheet name="2069" sheetId="59" r:id="rId59"/>
+    <sheet name="2070" sheetId="60" r:id="rId60"/>
+    <sheet name="2071" sheetId="61" r:id="rId61"/>
+    <sheet name="2072" sheetId="62" r:id="rId62"/>
+    <sheet name="2073" sheetId="63" r:id="rId63"/>
+    <sheet name="2074" sheetId="64" r:id="rId64"/>
+    <sheet name="2075" sheetId="65" r:id="rId65"/>
+    <sheet name="2076" sheetId="66" r:id="rId66"/>
+    <sheet name="2077" sheetId="67" r:id="rId67"/>
+    <sheet name="2078" sheetId="68" r:id="rId68"/>
+    <sheet name="2079" sheetId="69" r:id="rId69"/>
+    <sheet name="2080" sheetId="70" r:id="rId70"/>
+    <sheet name="2081" sheetId="71" r:id="rId71"/>
+    <sheet name="2082" sheetId="72" r:id="rId72"/>
+    <sheet name="2083" sheetId="73" r:id="rId73"/>
+    <sheet name="2084" sheetId="74" r:id="rId74"/>
+    <sheet name="2085" sheetId="75" r:id="rId75"/>
+    <sheet name="2086" sheetId="76" r:id="rId76"/>
+    <sheet name="2087" sheetId="77" r:id="rId77"/>
+    <sheet name="2088" sheetId="78" r:id="rId78"/>
+    <sheet name="2089" sheetId="79" r:id="rId79"/>
+    <sheet name="2090" sheetId="80" r:id="rId80"/>
+    <sheet name="2091" sheetId="81" r:id="rId81"/>
+    <sheet name="2092" sheetId="82" r:id="rId82"/>
+    <sheet name="2093" sheetId="83" r:id="rId83"/>
+    <sheet name="2094" sheetId="84" r:id="rId84"/>
+    <sheet name="2095" sheetId="85" r:id="rId85"/>
+    <sheet name="2096" sheetId="86" r:id="rId86"/>
+    <sheet name="2097" sheetId="87" r:id="rId87"/>
+    <sheet name="2098" sheetId="88" r:id="rId88"/>
+    <sheet name="2099" sheetId="89" r:id="rId89"/>
+    <sheet name="2100" sheetId="90" r:id="rId90"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="12">
   <si>
     <t>EU27+UK</t>
   </si>
@@ -639,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1023722612708773</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -667,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0006679149849405313</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -698,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -723,10 +712,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -751,22 +740,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -917,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1006196651876614</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -945,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001467463969443041</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -976,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1001,10 +990,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1029,578 +1018,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08783275431438219</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007300959605753277</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890742</v>
-      </c>
-      <c r="E10">
-        <v>0.054449091433516</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08757842632923764</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.00741698615870538</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890742</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.211111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000003</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1751,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1025858175017636</v>
+        <v>0.1001324971147054</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1779,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0005704888471244834</v>
+        <v>0.00168971411694954</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1863,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1872,13 +1305,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2029,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1023722612708773</v>
+        <v>0.09917702871189425</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2057,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0006679149849405313</v>
+        <v>0.002125606789829459</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2088,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2116,7 +1549,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2147,7 +1580,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2156,7 +1589,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2307,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1021587136506733</v>
+        <v>0.09815221552856472</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2335,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.000765337194491407</v>
+        <v>0.002593135131289845</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2394,7 +1827,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2419,22 +1852,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2585,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1019507129994328</v>
+        <v>0.09913592284731346</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2613,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008602288304295634</v>
+        <v>0.002144359628887716</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2672,7 +2105,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2697,13 +2130,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2863,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.101752010790663</v>
+        <v>0.1012494860928629</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2891,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009508784391795807</v>
+        <v>0.001180134407318102</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2975,13 +2408,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -3141,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1015648195126475</v>
+        <v>0.1011592412499352</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3169,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001036276665090458</v>
+        <v>0.001221304859089909</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3259,7 +2692,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -3419,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.101389763309718</v>
+        <v>0.0997620405554553</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3447,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001116138768300427</v>
+        <v>0.001858719496219353</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3478,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3506,7 +2939,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3537,7 +2970,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -3697,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1012249686880393</v>
+        <v>0.09843229202487801</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3725,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001191319452359028</v>
+        <v>0.002465361892290359</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3784,7 +3217,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3809,7 +3242,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -3818,13 +3251,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3975,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1010628526236586</v>
+        <v>0.09677739745131222</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4003,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001265278156186143</v>
+        <v>0.00322033863132614</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4096,7 +3529,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -4253,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1021587136506733</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4281,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.000765337194491407</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4312,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4337,10 +3770,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4365,22 +3798,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4531,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1008810729731926</v>
+        <v>0.09525656695363163</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4559,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001348207552368878</v>
+        <v>0.003914154218195239</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4590,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4618,7 +4051,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4643,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -4809,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1006196651876614</v>
+        <v>0.09405287870190972</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4837,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001467463969443041</v>
+        <v>0.004463286861214683</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4896,7 +4329,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4921,7 +4354,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5087,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1001324971147054</v>
+        <v>0.09180035048445535</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5115,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00168971411694954</v>
+        <v>0.005490909064685609</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5146,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5171,10 +4604,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5199,7 +4632,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5208,13 +4641,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5365,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09917702871189425</v>
+        <v>0.08569842213611516</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5393,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002125606789829459</v>
+        <v>0.008274659788052606</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5424,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5452,7 +4885,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5477,7 +4910,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5486,13 +4919,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5643,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09815221552856472</v>
+        <v>0.07835814712092555</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5671,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002593135131289845</v>
+        <v>0.01162335461315734</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5727,10 +5160,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5755,22 +5188,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5921,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09913592284731346</v>
+        <v>0.07237308437113434</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5949,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002144359628887716</v>
+        <v>0.01435379027349413</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6008,7 +5441,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6033,16 +5466,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -6199,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1012494860928629</v>
+        <v>0.06776100296794794</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6227,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001180134407318102</v>
+        <v>0.01645786036567079</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6283,7 +5716,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6317,16 +5750,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6477,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1011592412499352</v>
+        <v>0.06901346983850579</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6505,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001221304859089909</v>
+        <v>0.01588647450895929</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6536,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6561,10 +5994,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6595,13 +6028,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -6755,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0997620405554553</v>
+        <v>0.06895256219612061</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6783,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001858719496219353</v>
+        <v>0.01591426108459065</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6882,7 +6315,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7033,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09843229202487801</v>
+        <v>0.06869614740876523</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7061,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002465361892290359</v>
+        <v>0.01603123965415657</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7117,7 +6550,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7151,16 +6584,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7311,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1019507129994328</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7339,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0008602288304295634</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7370,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7395,10 +6828,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7423,22 +6856,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7589,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09677739745131222</v>
+        <v>0.07362913426856381</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7617,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00322033863132614</v>
+        <v>0.01378076980997042</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7867,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09525656695363163</v>
+        <v>0.08109842492509807</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7895,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003914154218195239</v>
+        <v>0.01037321697074029</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7951,10 +7384,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7979,7 +7412,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7988,13 +7421,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8145,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09405287870190972</v>
+        <v>0.08793662070402397</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8173,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004463286861214683</v>
+        <v>0.007253574890497236</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8204,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8232,7 +7665,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8266,13 +7699,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8423,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09180035048445535</v>
+        <v>0.08875788647956583</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8451,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005490909064685609</v>
+        <v>0.006878906578083654</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8482,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8507,10 +7940,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8535,10 +7968,10 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352941</v>
+        <v>0.2764705882352942</v>
       </c>
       <c r="F11">
         <v>0.07999999999999996</v>
@@ -8550,7 +7983,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8701,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08569842213611516</v>
+        <v>0.088014548165487</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8729,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008274659788052606</v>
+        <v>0.007218023731120397</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8785,7 +8218,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -8822,13 +8255,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8979,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07835814712092555</v>
+        <v>0.08782652524948123</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9007,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01162335461315734</v>
+        <v>0.007303801357234778</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9038,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9063,10 +8496,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9091,22 +8524,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9257,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07237308437113434</v>
+        <v>0.08774482321326293</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9285,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01435379027349413</v>
+        <v>0.007341074509169624</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9316,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9369,7 +8802,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9378,13 +8811,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9535,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06776100296794794</v>
+        <v>0.08764926866417347</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9563,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01645786036567079</v>
+        <v>0.007384667293280423</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9594,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9619,7 +9052,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -9653,16 +9086,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9813,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06901346983850579</v>
+        <v>0.08758711940028018</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9841,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01588647450895929</v>
+        <v>0.007413020307023492</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9897,10 +9330,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9925,22 +9358,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10091,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06895256219612061</v>
+        <v>0.08754222447955566</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10119,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01591426108459065</v>
+        <v>0.007433501745170244</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10150,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10175,10 +9608,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10203,7 +9636,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -10215,10 +9648,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10369,7 +9802,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.101752010790663</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10397,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0009508784391795807</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10428,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10453,10 +9886,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10481,22 +9914,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10647,7 +10080,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06869614740876523</v>
+        <v>0.08749249381142091</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10675,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01603123965415657</v>
+        <v>0.00745618929171137</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10706,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10731,10 +10164,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10759,22 +10192,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10925,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07362913426856381</v>
+        <v>0.08741767288618771</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10953,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01378076980997042</v>
+        <v>0.007490323223290163</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10984,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11009,7 +10442,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -11037,7 +10470,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11052,7 +10485,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11203,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08109842492509807</v>
+        <v>0.0872799932168548</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11231,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01037321697074029</v>
+        <v>0.007553133839413287</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11287,10 +10720,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11321,16 +10754,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11481,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08793662070402397</v>
+        <v>0.08706072167646137</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11509,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007253574890497236</v>
+        <v>0.007653167349205321</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11565,7 +10998,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -11593,7 +11026,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11608,7 +11041,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11759,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08875788647956583</v>
+        <v>0.08680590579004555</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11787,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006878906578083654</v>
+        <v>0.007769416486796129</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11871,10 +11304,10 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352942</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
         <v>0.07999999999999996</v>
@@ -11886,7 +11319,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12037,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.088014548165487</v>
+        <v>0.08661487564995722</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12065,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007218023731120397</v>
+        <v>0.007856566033676736</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12164,7 +11597,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12315,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08782652524948123</v>
+        <v>0.0864813981277081</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12343,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007303801357234778</v>
+        <v>0.007917459595171161</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12427,22 +11860,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12593,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08774482321326293</v>
+        <v>0.08664436970625418</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12621,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007341074509169624</v>
+        <v>0.00784311059862988</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12652,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12677,7 +12110,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -12714,13 +12147,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12871,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08764926866417347</v>
+        <v>0.08868024316767445</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12899,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007384667293280423</v>
+        <v>0.006914328106050469</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12989,7 +12422,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999995</v>
@@ -12998,7 +12431,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13149,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08758711940028018</v>
+        <v>0.08979614620411999</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13177,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007413020307023492</v>
+        <v>0.006405243812106308</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13233,7 +12666,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -13261,7 +12694,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13276,7 +12709,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13427,7 +12860,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1015648195126475</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13455,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001036276665090458</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13486,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13511,10 +12944,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13539,22 +12972,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13705,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08754222447955566</v>
+        <v>0.09087435336467851</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13733,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007433501745170244</v>
+        <v>0.005913356691871487</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13789,7 +13222,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -13817,7 +13250,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13829,10 +13262,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13983,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08749249381142091</v>
+        <v>0.09328419459340502</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14011,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00745618929171137</v>
+        <v>0.004813966977554075</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14042,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14070,7 +13503,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14095,22 +13528,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14261,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08741767288618771</v>
+        <v>0.09507761818117025</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14289,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007490323223290163</v>
+        <v>0.00399579214416672</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14320,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14345,10 +13778,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14388,7 +13821,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14539,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0872799932168548</v>
+        <v>0.09231859248091201</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14567,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007553133839413287</v>
+        <v>0.00525448273350659</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14598,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14623,10 +14056,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351603</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14654,10 +14087,10 @@
         <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352941</v>
+        <v>0.2764705882352942</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -14666,7 +14099,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14817,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08706072167646137</v>
+        <v>0.08875858135606876</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14845,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007653167349205321</v>
+        <v>0.006878589569613999</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14904,7 +14337,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14944,7 +14377,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15095,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08680590579004555</v>
+        <v>0.08735029908769877</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15123,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007769416486796129</v>
+        <v>0.007521059713391775</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15154,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15207,7 +14640,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -15222,7 +14655,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15373,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08661487564995722</v>
+        <v>0.08732761865911272</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15401,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007856566033676736</v>
+        <v>0.007531406714516415</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15457,7 +14890,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -15485,22 +14918,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352941</v>
+        <v>0.2764705882352942</v>
       </c>
       <c r="F11">
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15651,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0864813981277081</v>
+        <v>0.08738852295400537</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15679,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007917459595171161</v>
+        <v>0.007503621666039123</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15763,22 +15196,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15929,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08664436970625418</v>
+        <v>0.08726673870851108</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15957,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00784311059862988</v>
+        <v>0.007559180656924636</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15988,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16013,10 +15446,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16041,22 +15474,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
       </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
-      </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16207,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08868024316767445</v>
+        <v>0.0869295926299008</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16235,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006914328106050469</v>
+        <v>0.007712989516457862</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16319,7 +15752,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16328,13 +15761,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16485,7 +15918,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.101389763309718</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16513,7 +15946,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001116138768300427</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16544,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16569,10 +16002,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16597,22 +16030,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16763,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08979614620411999</v>
+        <v>0.08576896047378339</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16791,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006405243812106308</v>
+        <v>0.008242479608722495</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16875,7 +16308,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16884,7 +16317,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -17041,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09087435336467851</v>
+        <v>0.07899818700441397</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17069,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005913356691871487</v>
+        <v>0.01133136306770937</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17125,7 +16558,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17153,7 +16586,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -17168,7 +16601,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17319,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09328419459340502</v>
+        <v>0.08620695584599704</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17347,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004813966977554075</v>
+        <v>0.008042662458368252</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17403,7 +16836,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17431,7 +16864,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -17446,7 +16879,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17597,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09507761818117025</v>
+        <v>0.0918343150209634</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17625,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00399579214416672</v>
+        <v>0.005475414159194172</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17684,7 +17117,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17709,7 +17142,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -17718,13 +17151,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17875,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09231859248091201</v>
+        <v>0.09161330770934975</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17903,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00525448273350659</v>
+        <v>0.005576239542327567</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17962,7 +17395,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351603</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17990,7 +17423,7 @@
         <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352942</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
         <v>0.07999999999999996</v>
@@ -18153,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08875858135606876</v>
+        <v>0.09140127699455022</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18181,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006878589569613999</v>
+        <v>0.005672969726951861</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18212,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18237,10 +17670,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18280,7 +17713,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18431,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08735029908769877</v>
+        <v>0.09117247811555525</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18459,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007521059713391775</v>
+        <v>0.005777349688260497</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18490,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18709,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08732761865911272</v>
+        <v>0.09086534437961026</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18737,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007531406714516415</v>
+        <v>0.005917466666172866</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18793,7 +18226,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -18821,22 +18254,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352942</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18987,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08738852295400537</v>
+        <v>0.09035491778376387</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19015,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007503621666039123</v>
+        <v>0.006150327546258371</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19071,7 +18504,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -19111,7 +18544,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -19265,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08726673870851108</v>
+        <v>0.08950918454675356</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19293,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007559180656924636</v>
+        <v>0.006536158119136748</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19324,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19352,7 +18785,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19377,13 +18810,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -19392,7 +18825,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19543,7 +18976,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1012249686880393</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19571,7 +19004,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001191319452359028</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19602,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19627,10 +19060,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19655,22 +19088,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19821,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0869295926299008</v>
+        <v>0.08860640345933118</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19849,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007712989516457862</v>
+        <v>0.006948014398281309</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19939,7 +19372,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -20099,7 +19532,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08576896047378339</v>
+        <v>0.0882025422735031</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20127,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008242479608722495</v>
+        <v>0.007132259247451734</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20158,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20183,7 +19616,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -20220,7 +19653,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -20377,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07899818700441397</v>
+        <v>0.08784564001933921</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20405,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01133136306770937</v>
+        <v>0.007295081039430057</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20461,7 +19894,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -20501,10 +19934,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20655,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08620695584599704</v>
+        <v>0.0872098697286964</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20683,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008042662458368252</v>
+        <v>0.007585124760928948</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20714,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20739,10 +20172,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20773,16 +20206,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20933,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0918343150209634</v>
+        <v>0.08671914747698886</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20961,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005475414159194172</v>
+        <v>0.007808996354494083</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21017,7 +20450,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -21054,13 +20487,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21211,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09161330770934975</v>
+        <v>0.08664457733470839</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21239,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005576239542327567</v>
+        <v>0.007843015876793339</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21295,7 +20728,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -21332,7 +20765,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -21489,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09140127699455022</v>
+        <v>0.08698948131232095</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21517,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005672969726951861</v>
+        <v>0.00768566779888084</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21576,7 +21009,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351603</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21601,7 +21034,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -21767,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09117247811555525</v>
+        <v>0.08742049968386872</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21795,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005777349688260497</v>
+        <v>0.007489033614556636</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21894,7 +21327,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22045,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09086534437961026</v>
+        <v>0.08761575107781729</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22073,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005917466666172866</v>
+        <v>0.007399958296376197</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22157,7 +21590,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -22166,13 +21599,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22323,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09035491778376387</v>
+        <v>0.08766678302547271</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22351,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006150327546258371</v>
+        <v>0.007376677095239298</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22407,10 +21840,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22601,7 +22034,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1010628526236586</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22629,7 +22062,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001265278156186143</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22660,7 +22093,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22685,10 +22118,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22713,22 +22146,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22879,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08950918454675356</v>
+        <v>0.08775798052817059</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22907,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006536158119136748</v>
+        <v>0.007335072032116331</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22966,7 +22399,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22991,7 +22424,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -23000,13 +22433,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23157,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08860640345933118</v>
+        <v>0.08777718011600998</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23185,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006948014398281309</v>
+        <v>0.007326313019639438</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23244,7 +22677,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23269,22 +22702,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23435,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0882025422735031</v>
+        <v>0.08772051964274936</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23463,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007132259247451734</v>
+        <v>0.007352162001210716</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23494,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23522,7 +22955,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23562,7 +22995,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23713,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08784564001933921</v>
+        <v>0.08766458648610577</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23741,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007295081039430057</v>
+        <v>0.007377679174861104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23797,7 +23230,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -23837,10 +23270,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23991,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0872098697286964</v>
+        <v>0.08765226135800476</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24019,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007585124760928948</v>
+        <v>0.007383302001336296</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24050,7 +23483,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24078,7 +23511,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24109,16 +23542,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24269,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08671914747698886</v>
+        <v>0.08768946265816151</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24297,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007808996354494083</v>
+        <v>0.00736633045720964</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24328,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24353,7 +23786,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -24381,7 +23814,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -24396,7 +23829,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24547,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08664457733470839</v>
+        <v>0.08776848189464705</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24575,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007843015876793339</v>
+        <v>0.007330281220940526</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24634,7 +24067,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24665,10 +24098,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -24825,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08698948131232095</v>
+        <v>0.08786943361008387</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24853,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00768566779888084</v>
+        <v>0.007284226204422864</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24909,10 +24342,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351603</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24937,7 +24370,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -24952,7 +24385,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25103,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08742049968386872</v>
+        <v>0.08792146281548256</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25131,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007489033614556636</v>
+        <v>0.007260490045966634</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25162,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25187,7 +24620,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -25227,10 +24660,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25381,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08761575107781729</v>
+        <v>0.08783275431438219</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25409,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007399958296376197</v>
+        <v>0.007300959605753277</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25440,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25465,10 +24898,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25499,7 +24932,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -25508,7 +24941,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25659,7 +25092,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1008810729731926</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25687,7 +25120,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001348207552368878</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25718,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25743,10 +25176,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25771,22 +25204,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25937,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08766678302547271</v>
+        <v>0.08757842632923764</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25965,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007376677095239298</v>
+        <v>0.00741698615870538</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -26021,10 +25454,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -26049,7 +25482,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -26058,2509 +25491,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08775798052817059</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007335072032116331</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.054449091433516</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.211111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000003</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08777718011600998</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007326313019639438</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351602</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.211111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08772051964274936</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007352162001210716</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.054449091433516</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.211111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999996</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08766458648610577</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007377679174861104</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08765226135800476</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007383302001336296</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999996</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08768946265816151</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.00736633045720964</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08776848189464705</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007330281220940526</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.054449091433516</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08786943361008387</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007284226204422864</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328303</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890741</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.211111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="I11">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.08792146281548256</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.007260490045966634</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2418568350328302</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0.05016110985890742</v>
-      </c>
-      <c r="E10">
-        <v>0.05444909143351601</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="E11">
-        <v>0.2764705882352941</v>
-      </c>
-      <c r="F11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000003</v>

--- a/Recycling/SG2/SG2_Min.xlsx
+++ b/Recycling/SG2/SG2_Min.xlsx
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0006679149849405313</v>
+        <v>0.000667914984940531</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -755,7 +755,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001467463969443041</v>
+        <v>0.00146746396944304</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -1018,7 +1018,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1027,7 +1027,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -1268,7 +1268,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -1305,13 +1305,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09913592284731346</v>
+        <v>0.09913592284731347</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2102,10 +2102,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2136,13 +2136,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001180134407318102</v>
+        <v>0.001180134407318101</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -2414,7 +2414,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2423,7 +2423,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1011592412499352</v>
+        <v>0.1011592412499351</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2686,13 +2686,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2701,7 +2701,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0997620405554553</v>
+        <v>0.09976204055545529</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001858719496219353</v>
+        <v>0.001858719496219352</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002465361892290359</v>
+        <v>0.002465361892290358</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3251,13 +3251,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09677739745131222</v>
+        <v>0.09677739745131221</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00322033863132614</v>
+        <v>0.003220338631326141</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -3532,7 +3532,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.000765337194491407</v>
+        <v>0.0007653371944914065</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351599</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3798,22 +3798,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09525656695363163</v>
+        <v>0.09525656695363166</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -4085,13 +4085,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09405287870190972</v>
+        <v>0.0940528787019097</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004463286861214683</v>
+        <v>0.004463286861214679</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4326,10 +4326,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -4363,13 +4363,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09180035048445535</v>
+        <v>0.09180035048445537</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005490909064685609</v>
+        <v>0.005490909064685606</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4632,7 +4632,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -4647,7 +4647,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08569842213611516</v>
+        <v>0.08569842213611514</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -5076,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07835814712092555</v>
+        <v>0.07835814712092554</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5160,10 +5160,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5188,22 +5188,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07237308437113434</v>
+        <v>0.07237308437113435</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01435379027349413</v>
+        <v>0.01435379027349412</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5716,7 +5716,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -5744,7 +5744,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5756,7 +5756,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999999</v>
@@ -5910,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06901346983850579</v>
+        <v>0.06901346983850577</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5994,10 +5994,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6022,22 +6022,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06895256219612061</v>
+        <v>0.06895256219612059</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01591426108459065</v>
+        <v>0.01591426108459066</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6272,10 +6272,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -6315,7 +6315,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06869614740876523</v>
+        <v>0.0686961474087652</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01603123965415657</v>
+        <v>0.01603123965415658</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6578,13 +6578,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -6593,7 +6593,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008602288304295634</v>
+        <v>0.0008602288304295629</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07362913426856381</v>
+        <v>0.07362913426856378</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01378076980997042</v>
+        <v>0.01378076980997044</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7134,7 +7134,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7143,7 +7143,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08109842492509807</v>
+        <v>0.08109842492509806</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7421,13 +7421,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007253574890497236</v>
+        <v>0.007253574890497235</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7702,10 +7702,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08875788647956583</v>
+        <v>0.08875788647956584</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006878906578083654</v>
+        <v>0.006878906578083652</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7940,7 +7940,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7971,10 +7971,10 @@
         <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352942</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -7983,7 +7983,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.088014548165487</v>
+        <v>0.08801454816548702</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007218023731120397</v>
+        <v>0.007218023731120394</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351599</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8255,7 +8255,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08782652524948123</v>
+        <v>0.08782652524948124</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8496,10 +8496,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08774482321326293</v>
+        <v>0.08774482321326292</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8802,22 +8802,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8968,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08764926866417347</v>
+        <v>0.08764926866417348</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9086,16 +9086,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08758711940028018</v>
+        <v>0.08758711940028019</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007413020307023492</v>
+        <v>0.007413020307023495</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9373,7 +9373,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08754222447955566</v>
+        <v>0.08754222447955565</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007433501745170244</v>
+        <v>0.007433501745170243</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -9636,7 +9636,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9648,10 +9648,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009508784391795807</v>
+        <v>0.0009508784391795803</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9920,16 +9920,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00745618929171137</v>
+        <v>0.007456189291711368</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10167,7 +10167,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10192,22 +10192,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10485,7 +10485,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10723,7 +10723,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -10914,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08706072167646137</v>
+        <v>0.08706072167646138</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007653167349205321</v>
+        <v>0.007653167349205326</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10998,7 +10998,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -11026,22 +11026,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08680590579004555</v>
+        <v>0.08680590579004557</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007769416486796129</v>
+        <v>0.00776941648679613</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11276,10 +11276,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11304,22 +11304,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08661487564995722</v>
+        <v>0.08661487564995723</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007856566033676736</v>
+        <v>0.007856566033676732</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11529,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0864813981277081</v>
+        <v>0.08648139812770808</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007917459595171161</v>
+        <v>0.007917459595171164</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11869,13 +11869,13 @@
         <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08664436970625418</v>
+        <v>0.08664436970625417</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00784311059862988</v>
+        <v>0.007843110598629882</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12110,10 +12110,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12147,10 +12147,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999996</v>
@@ -12304,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08868024316767445</v>
+        <v>0.08868024316767444</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006914328106050469</v>
+        <v>0.00691432810605048</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12388,7 +12388,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -12416,7 +12416,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12425,13 +12425,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006405243812106308</v>
+        <v>0.006405243812106299</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12666,7 +12666,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -12694,7 +12694,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12888,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001036276665090458</v>
+        <v>0.001036276665090457</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12972,22 +12972,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09087435336467851</v>
+        <v>0.0908743533646785</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005913356691871487</v>
+        <v>0.005913356691871498</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13222,10 +13222,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13250,7 +13250,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13265,7 +13265,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09328419459340502</v>
+        <v>0.09328419459340498</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004813966977554075</v>
+        <v>0.004813966977554102</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13534,7 +13534,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -13543,7 +13543,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09507761818117025</v>
+        <v>0.09507761818117035</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13722,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00399579214416672</v>
+        <v>0.00399579214416667</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13781,7 +13781,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13818,10 +13818,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09231859248091201</v>
+        <v>0.09231859248091216</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00525448273350659</v>
+        <v>0.005254482733506515</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14056,10 +14056,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351603</v>
+        <v>0.05444909143351599</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14084,10 +14084,10 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352942</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
         <v>0.07999999999999996</v>
@@ -14099,7 +14099,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14250,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08875858135606876</v>
+        <v>0.08875858135606886</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006878589569613999</v>
+        <v>0.006878589569613954</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14337,7 +14337,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14362,7 +14362,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14528,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08735029908769877</v>
+        <v>0.08735029908769884</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007521059713391775</v>
+        <v>0.007521059713391747</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14640,7 +14640,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14655,7 +14655,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08732761865911272</v>
+        <v>0.08732761865911273</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14834,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007531406714516415</v>
+        <v>0.00753140671451641</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14893,7 +14893,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14921,19 +14921,19 @@
         <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352942</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08738852295400537</v>
+        <v>0.08738852295400536</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007503621666039123</v>
+        <v>0.007503621666039129</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15171,7 +15171,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351603</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15199,7 +15199,7 @@
         <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352941</v>
+        <v>0.2764705882352942</v>
       </c>
       <c r="F11">
         <v>0.07999999999999996</v>
@@ -15208,10 +15208,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007559180656924636</v>
+        <v>0.007559180656924633</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15446,7 +15446,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -15474,7 +15474,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -15489,7 +15489,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15640,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0869295926299008</v>
+        <v>0.08692959262990088</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15668,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007712989516457862</v>
+        <v>0.007712989516457828</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16030,7 +16030,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16196,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08576896047378339</v>
+        <v>0.08576896047378406</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008242479608722495</v>
+        <v>0.008242479608722188</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16280,7 +16280,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16317,13 +16317,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16474,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07899818700441397</v>
+        <v>0.07899818700442035</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01133136306770937</v>
+        <v>0.01133136306770645</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16533,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16558,7 +16558,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16586,7 +16586,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16752,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08620695584599704</v>
+        <v>0.0862069558460004</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16780,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008042662458368252</v>
+        <v>0.008042662458366713</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16811,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16836,7 +16836,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16864,7 +16864,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16879,7 +16879,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0918343150209634</v>
+        <v>0.09183431502096343</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17058,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005475414159194172</v>
+        <v>0.005475414159194157</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17114,7 +17114,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17148,16 +17148,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09161330770934975</v>
+        <v>0.09161330770934974</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005576239542327567</v>
+        <v>0.005576239542327558</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17392,7 +17392,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17420,7 +17420,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -17435,7 +17435,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17586,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09140127699455022</v>
+        <v>0.09140127699455021</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17670,7 +17670,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17698,7 +17698,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -17713,7 +17713,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17864,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09117247811555525</v>
+        <v>0.09117247811555522</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005777349688260497</v>
+        <v>0.005777349688260503</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17951,7 +17951,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17991,7 +17991,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18142,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09086534437961026</v>
+        <v>0.09086534437961022</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005917466666172866</v>
+        <v>0.005917466666172882</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18263,7 +18263,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -18420,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09035491778376387</v>
+        <v>0.09035491778376377</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006150327546258371</v>
+        <v>0.0061503275462584</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18504,7 +18504,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -18532,13 +18532,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -18547,7 +18547,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08950918454675356</v>
+        <v>0.08950918454675344</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18726,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006536158119136748</v>
+        <v>0.0065361581191368</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18810,7 +18810,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19063,7 +19063,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19103,7 +19103,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19254,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08860640345933118</v>
+        <v>0.08860640345933106</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006948014398281309</v>
+        <v>0.006948014398281358</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19372,7 +19372,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -19381,7 +19381,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19560,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007132259247451734</v>
+        <v>0.007132259247451742</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19659,7 +19659,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19810,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08784564001933921</v>
+        <v>0.08784564001933926</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19838,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007295081039430057</v>
+        <v>0.007295081039430041</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19894,7 +19894,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -19922,7 +19922,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19931,13 +19931,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20088,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0872098697286964</v>
+        <v>0.08720986972869642</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007585124760928948</v>
+        <v>0.007585124760928945</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20206,16 +20206,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007808996354494083</v>
+        <v>0.007808996354494075</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20478,7 +20478,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -20487,7 +20487,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -20644,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08664457733470839</v>
+        <v>0.08664457733470841</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007843015876793339</v>
+        <v>0.007843015876793332</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20728,10 +20728,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20762,16 +20762,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20922,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08698948131232095</v>
+        <v>0.08698948131232094</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20950,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00768566779888084</v>
+        <v>0.00768566779888085</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21006,10 +21006,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351603</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21040,7 +21040,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21049,7 +21049,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08742049968386872</v>
+        <v>0.08742049968386865</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007489033614556636</v>
+        <v>0.007489033614556668</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21287,7 +21287,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21321,13 +21321,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21478,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08761575107781729</v>
+        <v>0.08761575107781727</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007399958296376197</v>
+        <v>0.007399958296376188</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21602,10 +21602,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21756,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08766678302547271</v>
+        <v>0.08766678302547284</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007376677095239298</v>
+        <v>0.007376677095239242</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21874,7 +21874,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22034,7 +22034,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1010628526236586</v>
+        <v>0.1010628526236587</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22146,7 +22146,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -22155,7 +22155,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -22312,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08775798052817059</v>
+        <v>0.08775798052817066</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007335072032116331</v>
+        <v>0.007335072032116304</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22371,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22396,10 +22396,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22424,7 +22424,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -22433,13 +22433,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22590,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08777718011600998</v>
+        <v>0.08777718011600985</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22618,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007326313019639438</v>
+        <v>0.007326313019639489</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22677,7 +22677,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22708,16 +22708,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22868,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08772051964274936</v>
+        <v>0.08772051964274924</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22896,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007352162001210716</v>
+        <v>0.007352162001210771</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22927,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22955,7 +22955,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -23146,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08766458648610577</v>
+        <v>0.08766458648610574</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23174,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007377679174861104</v>
+        <v>0.007377679174861128</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23230,7 +23230,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -23273,7 +23273,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08765226135800476</v>
+        <v>0.0876522613580049</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23452,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007383302001336296</v>
+        <v>0.007383302001336238</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23536,7 +23536,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -23551,7 +23551,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23702,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08768946265816151</v>
+        <v>0.0876894626581617</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00736633045720964</v>
+        <v>0.007366330457209559</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23814,7 +23814,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -23829,7 +23829,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08776848189464705</v>
+        <v>0.08776848189464707</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007330281220940526</v>
+        <v>0.007330281220940518</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24067,7 +24067,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24092,16 +24092,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -24258,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08786943361008387</v>
+        <v>0.08786943361008373</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007284226204422864</v>
+        <v>0.00728422620442293</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24385,7 +24385,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08792146281548256</v>
+        <v>0.08792146281548247</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007260490045966634</v>
+        <v>0.007260490045966675</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24620,10 +24620,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24814,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08783275431438219</v>
+        <v>0.08783275431438213</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007300959605753277</v>
+        <v>0.007300959605753297</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24873,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24932,16 +24932,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1008810729731926</v>
+        <v>0.1008810729731927</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -25219,7 +25219,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25370,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08757842632923764</v>
+        <v>0.08757842632923755</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00741698615870538</v>
+        <v>0.007416986158705416</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25482,7 +25482,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -25494,10 +25494,10 @@
         <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>

--- a/Recycling/SG2/SG2_Min.xlsx
+++ b/Recycling/SG2/SG2_Min.xlsx
@@ -715,7 +715,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1006196651876614</v>
+        <v>0.1006196651876616</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00146746396944304</v>
+        <v>0.001467463969442971</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1001324971147054</v>
+        <v>0.1001324971147061</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00168971411694954</v>
+        <v>0.001689714116949206</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -1305,13 +1305,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09917702871189425</v>
+        <v>0.09917702871189915</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002125606789829459</v>
+        <v>0.00212560678982722</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -1589,7 +1589,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09815221552856472</v>
+        <v>0.09815221552860413</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002593135131289845</v>
+        <v>0.002593135131271853</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09913592284731347</v>
+        <v>0.09913592284750238</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002144359628887716</v>
+        <v>0.002144359628801526</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -2130,7 +2130,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -2139,10 +2139,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1012494860928629</v>
+        <v>0.1012494860931513</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001180134407318101</v>
+        <v>0.001180134407186538</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1011592412499351</v>
+        <v>0.1011592412514239</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001221304859089909</v>
+        <v>0.001221304858410724</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -2701,7 +2701,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09976204055545529</v>
+        <v>0.09976204057441224</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001858719496219352</v>
+        <v>0.001858719487571032</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09843229202487801</v>
+        <v>0.09843229216265266</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002465361892290358</v>
+        <v>0.002465361829436403</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09677739745131221</v>
+        <v>0.09677739832613944</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003220338631326141</v>
+        <v>0.003220338232222643</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -3532,10 +3532,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351599</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09525656695363166</v>
+        <v>0.09525657161533396</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003914154218195239</v>
+        <v>0.00391415209148767</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4048,10 +4048,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -4085,7 +4085,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0940528787019097</v>
+        <v>0.09405290196485772</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004463286861214679</v>
+        <v>0.00446327624846332</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -4363,13 +4363,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09180035048445537</v>
+        <v>0.09180046732037346</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005490909064685606</v>
+        <v>0.005490855763163054</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -4632,13 +4632,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -4647,7 +4647,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08569842213611514</v>
+        <v>0.0856990841238416</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008274659788052606</v>
+        <v>0.008274357783717712</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5076,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07835814712092554</v>
+        <v>0.07836130491901475</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01162335461315734</v>
+        <v>0.01162191399927051</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07237308437113435</v>
+        <v>0.07238515534470687</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01435379027349412</v>
+        <v>0.0143482833944395</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5466,7 +5466,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5475,13 +5475,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06776100296794794</v>
+        <v>0.06780270302848532</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01645786036567079</v>
+        <v>0.01643883644944979</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5716,7 +5716,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -5750,7 +5750,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -5759,7 +5759,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06901346983850577</v>
+        <v>0.06913667512940794</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01588647450895929</v>
+        <v>0.01583026722527906</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6028,13 +6028,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
       </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999999</v>
@@ -6188,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06895256219612059</v>
+        <v>0.06930603023541997</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01591426108459066</v>
+        <v>0.01575300601014286</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6272,10 +6272,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6306,7 +6306,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0686961474087652</v>
+        <v>0.06960578032628975</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01603123965415658</v>
+        <v>0.01561625751283953</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6587,13 +6587,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6871,7 +6871,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07362913426856378</v>
+        <v>0.07525882841526181</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01378076980997044</v>
+        <v>0.01303728971634207</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7106,10 +7106,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7134,7 +7134,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7143,13 +7143,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08109842492509806</v>
+        <v>0.08307292980740952</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01037321697074029</v>
+        <v>0.009472431336978915</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7412,13 +7412,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -7427,7 +7427,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08793662070402397</v>
+        <v>0.0895532707559394</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007253574890497235</v>
+        <v>0.006516045621954616</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7662,10 +7662,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7699,13 +7699,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08875788647956584</v>
+        <v>0.09027805287705029</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006878906578083652</v>
+        <v>0.006185393959275759</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7968,13 +7968,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -7983,7 +7983,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08801454816548702</v>
+        <v>0.08949422160064589</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007218023731120394</v>
+        <v>0.006542984340238184</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.0501611098589074</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351599</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -8255,10 +8255,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999996</v>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08782652524948124</v>
+        <v>0.08914549413665265</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007303801357234778</v>
+        <v>0.00670207672460111</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8499,7 +8499,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08774482321326292</v>
+        <v>0.08883627633986334</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007341074509169624</v>
+        <v>0.006843144468492979</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8808,16 +8808,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8968,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08764926866417348</v>
+        <v>0.08858175064759442</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007384667293280423</v>
+        <v>0.006959261217088002</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9092,10 +9092,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08758711940028019</v>
+        <v>0.08848304625472879</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007413020307023495</v>
+        <v>0.007004290986261538</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -9367,7 +9367,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08754222447955565</v>
+        <v>0.08841913667071914</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007433501745170243</v>
+        <v>0.007033447072757595</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -9636,7 +9636,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9645,13 +9645,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009508784391795803</v>
+        <v>0.0009508784391795801</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9914,22 +9914,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10080,7 +10080,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08749249381142091</v>
+        <v>0.08832165793319567</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007456189291711368</v>
+        <v>0.00707791768771781</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10164,7 +10164,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10192,13 +10192,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -10207,7 +10207,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08741767288618771</v>
+        <v>0.08816912223848027</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007490323223290163</v>
+        <v>0.007147505746813714</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10470,19 +10470,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -10636,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0872799932168548</v>
+        <v>0.08789531454588927</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007553133839413287</v>
+        <v>0.007272419105149199</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10720,7 +10720,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10754,16 +10754,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08706072167646138</v>
+        <v>0.08741357748495127</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007653167349205326</v>
+        <v>0.007492191579570921</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10998,7 +10998,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -11026,7 +11026,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11035,13 +11035,13 @@
         <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08680590579004557</v>
+        <v>0.08669618410056031</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00776941648679613</v>
+        <v>0.00781947243878984</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11276,10 +11276,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11310,16 +11310,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08661487564995723</v>
+        <v>0.08571830428662802</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007856566033676732</v>
+        <v>0.008265589384777974</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11529,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08648139812770808</v>
+        <v>0.0840996460465885</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007917459595171164</v>
+        <v>0.009004034805530857</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11866,16 +11866,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08664436970625417</v>
+        <v>0.080770447491133</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007843110598629882</v>
+        <v>0.01052284301793841</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12110,10 +12110,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12147,13 +12147,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12304,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08868024316767444</v>
+        <v>0.07847948798586968</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00691432810605048</v>
+        <v>0.01156799789618537</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12388,7 +12388,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -12416,7 +12416,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12425,13 +12425,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12582,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08979614620411999</v>
+        <v>0.07928667960987691</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006405243812106299</v>
+        <v>0.01119975032935888</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12694,7 +12694,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12709,7 +12709,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0908743533646785</v>
+        <v>0.08094797036146843</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005913356691871498</v>
+        <v>0.01044185560043704</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13222,10 +13222,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13250,7 +13250,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13416,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09328419459340498</v>
+        <v>0.08374061343677669</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004813966977554102</v>
+        <v>0.009167828483565083</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13528,16 +13528,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09507761818117035</v>
+        <v>0.08714702133571135</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13722,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00399579214416667</v>
+        <v>0.007613796723208244</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13806,7 +13806,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13818,10 +13818,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09231859248091216</v>
+        <v>0.08919319795009553</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005254482733506515</v>
+        <v>0.00668031384611448</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14059,7 +14059,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351599</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14084,7 +14084,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14099,7 +14099,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14250,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08875858135606886</v>
+        <v>0.08943660707764721</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006878589569613954</v>
+        <v>0.006569268567275637</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14362,7 +14362,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14374,10 +14374,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14528,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08735029908769884</v>
+        <v>0.08912490002231745</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007521059713391747</v>
+        <v>0.006711471931723347</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14615,7 +14615,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14652,10 +14652,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08732761865911273</v>
+        <v>0.08884756795964377</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14834,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00753140671451641</v>
+        <v>0.006837993137153543</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14890,10 +14890,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14924,13 +14924,13 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
       </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -15084,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08738852295400536</v>
+        <v>0.0886502058671548</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007503621666039129</v>
+        <v>0.006928031373653136</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15171,7 +15171,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351603</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15199,7 +15199,7 @@
         <v>0.2111111111111111</v>
       </c>
       <c r="E11">
-        <v>0.2764705882352942</v>
+        <v>0.2764705882352941</v>
       </c>
       <c r="F11">
         <v>0.07999999999999996</v>
@@ -15211,7 +15211,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15362,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08726673870851108</v>
+        <v>0.08851021860319623</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007559180656924633</v>
+        <v>0.006991894733735498</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15446,10 +15446,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15480,16 +15480,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
       </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15640,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08692959262990088</v>
+        <v>0.08840681582026046</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15668,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007712989516457828</v>
+        <v>0.007039067947736598</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15761,13 +15761,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16002,10 +16002,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16030,16 +16030,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -16196,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08576896047378406</v>
+        <v>0.08829417208135736</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008242479608722188</v>
+        <v>0.007090456963102463</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16255,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16280,7 +16280,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16314,16 +16314,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16474,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07899818700442035</v>
+        <v>0.08812398348829061</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01133136306770645</v>
+        <v>0.007168098422000815</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16533,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16592,16 +16592,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0862069558460004</v>
+        <v>0.08785137612115144</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16780,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008042662458366713</v>
+        <v>0.007292464181830699</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16811,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16836,7 +16836,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16864,7 +16864,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -16879,7 +16879,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09183431502096343</v>
+        <v>0.08743046855792876</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17058,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005475414159194157</v>
+        <v>0.007484485730872729</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17114,10 +17114,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17148,16 +17148,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09161330770934974</v>
+        <v>0.08683092237728153</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005576239542327558</v>
+        <v>0.007758003710565597</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17435,7 +17435,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17586,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09140127699455021</v>
+        <v>0.08603254678159272</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17614,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005672969726951861</v>
+        <v>0.008122229331573076</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17670,7 +17670,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17713,7 +17713,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17864,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09117247811555522</v>
+        <v>0.08499826161064403</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005777349688260503</v>
+        <v>0.008594078872969165</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17948,7 +17948,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.054449091433516</v>
@@ -17982,7 +17982,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -17991,7 +17991,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18142,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09086534437961022</v>
+        <v>0.08378610736099799</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005917466666172882</v>
+        <v>0.009147073775015559</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18201,7 +18201,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18254,7 +18254,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -18263,13 +18263,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18420,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09035491778376377</v>
+        <v>0.08286746106535509</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0061503275462584</v>
+        <v>0.00956616789478016</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18479,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18538,7 +18538,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -18547,7 +18547,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08950918454675344</v>
+        <v>0.08278050101123409</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18726,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0065361581191368</v>
+        <v>0.009605839798438173</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18810,7 +18810,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19004,7 +19004,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001191319452359028</v>
+        <v>0.001191319452359027</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19088,7 +19088,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19103,7 +19103,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19254,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08860640345933106</v>
+        <v>0.08360813855267922</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006948014398281358</v>
+        <v>0.009228264633152867</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19366,7 +19366,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19381,7 +19381,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19532,7 +19532,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0882025422735031</v>
+        <v>0.08502154264879644</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19560,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007132259247451742</v>
+        <v>0.008583457868739385</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19619,7 +19619,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351599</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19659,7 +19659,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19810,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08784564001933926</v>
+        <v>0.08668276956603975</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19838,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007295081039430041</v>
+        <v>0.007825592261580843</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19894,10 +19894,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19922,7 +19922,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19931,7 +19931,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -20088,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08720986972869642</v>
+        <v>0.0880438330680806</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007585124760928945</v>
+        <v>0.007204663713741499</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20147,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20175,7 +20175,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20366,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08671914747698886</v>
+        <v>0.0886942600898494</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007808996354494075</v>
+        <v>0.0069079334689757</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20425,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20450,7 +20450,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -20478,16 +20478,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -20644,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08664457733470841</v>
+        <v>0.08879562054176757</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007843015876793332</v>
+        <v>0.006861691983458304</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20731,7 +20731,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20756,7 +20756,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -20765,7 +20765,7 @@
         <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -20922,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08698948131232094</v>
+        <v>0.0886893579070954</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20950,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00768566779888085</v>
+        <v>0.006910169885729307</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21006,7 +21006,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -21034,22 +21034,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08742049968386865</v>
+        <v>0.08855845325319067</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007489033614556668</v>
+        <v>0.006969889683176373</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21287,7 +21287,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21312,7 +21312,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -21327,7 +21327,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21478,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08761575107781727</v>
+        <v>0.08844241230461082</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007399958296376188</v>
+        <v>0.007022828533996742</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21596,16 +21596,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21756,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08766678302547284</v>
+        <v>0.08833569372825137</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007376677095239242</v>
+        <v>0.00707151444067707</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21840,10 +21840,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21874,10 +21874,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -22062,7 +22062,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001265278156186143</v>
+        <v>0.001265278156186139</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22093,7 +22093,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22121,7 +22121,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22161,7 +22161,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22312,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08775798052817066</v>
+        <v>0.08821774355774517</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007335072032116304</v>
+        <v>0.007125324294500929</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22371,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22396,7 +22396,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -22433,13 +22433,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22590,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08777718011600985</v>
+        <v>0.08805750757626785</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22618,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007326313019639489</v>
+        <v>0.00719842528879043</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22674,7 +22674,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -22702,13 +22702,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22717,7 +22717,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22868,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08772051964274924</v>
+        <v>0.08782020783180942</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22896,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007352162001210771</v>
+        <v>0.00730668341598896</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -23146,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08766458648610574</v>
+        <v>0.08747634868847579</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23174,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007377679174861128</v>
+        <v>0.007463554831768821</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0876522613580049</v>
+        <v>0.0870087486236263</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23452,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007383302001336238</v>
+        <v>0.007676877890392615</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23536,7 +23536,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -23551,7 +23551,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23702,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0876894626581617</v>
+        <v>0.08641228091978712</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007366330457209559</v>
+        <v>0.007948991443230226</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23814,7 +23814,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -23829,7 +23829,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08776848189464707</v>
+        <v>0.08569669707853331</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007330281220940518</v>
+        <v>0.008275446773742557</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24067,7 +24067,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24101,13 +24101,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24258,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08786943361008373</v>
+        <v>0.08492116870283183</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00728422620442293</v>
+        <v>0.008629249301993795</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08792146281548247</v>
+        <v>0.08428036985242993</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007260490045966675</v>
+        <v>0.008921587094492495</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24595,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24623,7 +24623,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24814,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08783275431438213</v>
+        <v>0.08408061786330356</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007300959605753297</v>
+        <v>0.009012715621817104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -24935,13 +24935,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999995</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001348207552368878</v>
+        <v>0.001348207552368862</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25176,7 +25176,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890743</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -25204,16 +25204,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -25370,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08757842632923755</v>
+        <v>0.0844927602503608</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007416986158705416</v>
+        <v>0.008824692819416804</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25491,13 +25491,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>

--- a/Recycling/SG2/SG2_Min.xlsx
+++ b/Recycling/SG2/SG2_Min.xlsx
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1023722612708773</v>
+        <v>0.1024318562929905</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.000667914984940531</v>
+        <v>0.0006407272376505002</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1006196651876616</v>
+        <v>0.1007839400267433</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001467463969442971</v>
+        <v>0.001392520414550315</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -1033,7 +1033,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1001324971147061</v>
+        <v>0.1003034787883494</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001689714116949206</v>
+        <v>0.001611710848061841</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1305,13 +1305,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09917702871189915</v>
+        <v>0.09931937863231707</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00212560678982722</v>
+        <v>0.002060665566116782</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -1583,13 +1583,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09815221552860413</v>
+        <v>0.09810354363906948</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002593135131271853</v>
+        <v>0.002615339654164468</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09913592284750238</v>
+        <v>0.09890388872832383</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002144359628801526</v>
+        <v>0.002250215533727842</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1012494860931513</v>
+        <v>0.1011907836685122</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001180134407186538</v>
+        <v>0.001206914944046998</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -2423,7 +2423,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1011592412514239</v>
+        <v>0.1012212236007844</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001221304858410724</v>
+        <v>0.001193027992472907</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -2686,7 +2686,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -2852,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09976204057441224</v>
+        <v>0.0998149003954064</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001858719487571032</v>
+        <v>0.001834604395336375</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2979,7 +2979,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09843229216265266</v>
+        <v>0.09843371036011818</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002465361829436403</v>
+        <v>0.002464714835896811</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -3248,7 +3248,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999997</v>
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09677739832613944</v>
+        <v>0.09670423965325191</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003220338232222643</v>
+        <v>0.003253713830385248</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3520,22 +3520,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1021587136506733</v>
+        <v>0.1022334483109255</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0007653371944914065</v>
+        <v>0.0007312426177180787</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -3807,13 +3807,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09525657161533396</v>
+        <v>0.0951459410488143</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00391415209148767</v>
+        <v>0.003964622680782517</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4048,10 +4048,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -4091,7 +4091,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09405290196485772</v>
+        <v>0.09387933498597016</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00446327624846332</v>
+        <v>0.004542458955215736</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4363,7 +4363,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09180046732037346</v>
+        <v>0.09146820555241199</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005490855763163054</v>
+        <v>0.005642436359346474</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4638,16 +4638,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0856990841238416</v>
+        <v>0.08517690004934061</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008274357783717712</v>
+        <v>0.008512582523855519</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -4925,7 +4925,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07836130491901475</v>
+        <v>0.07749236535427188</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01162191399927051</v>
+        <v>0.01201833149286056</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -5354,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07238515534470687</v>
+        <v>0.07137295814289195</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0143482833944395</v>
+        <v>0.01481005621966594</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5472,16 +5472,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06780270302848532</v>
+        <v>0.06745315496842744</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01643883644944979</v>
+        <v>0.01659830319659742</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5716,7 +5716,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -5750,7 +5750,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -5910,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06913667512940794</v>
+        <v>0.06925412576136213</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01583026722527906</v>
+        <v>0.01577668526511867</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -6034,10 +6034,10 @@
         <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06930603023541997</v>
+        <v>0.06962480119212572</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01575300601014286</v>
+        <v>0.01560758003483467</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6300,16 +6300,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06960578032628975</v>
+        <v>0.07015803577832022</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01561625751283953</v>
+        <v>0.01536431395888231</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -6578,7 +6578,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -6590,10 +6590,10 @@
         <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1019507129994328</v>
+        <v>0.1020404116252024</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008602288304295629</v>
+        <v>0.0008193075674915977</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6868,10 +6868,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07525882841526181</v>
+        <v>0.07592654987730486</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01303728971634207</v>
+        <v>0.01273266960334523</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7106,10 +7106,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7134,7 +7134,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08307292980740952</v>
+        <v>0.08363190423608174</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009472431336978915</v>
+        <v>0.009217422529708464</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -7412,7 +7412,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -7427,7 +7427,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0895532707559394</v>
+        <v>0.08977770771662369</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006516045621954616</v>
+        <v>0.00641365560424404</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7665,7 +7665,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7699,13 +7699,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09027805287705029</v>
+        <v>0.09030268662288889</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006185393959275759</v>
+        <v>0.00617415583849119</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7968,13 +7968,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -8134,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08949422160064589</v>
+        <v>0.08940667011097381</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006542984340238184</v>
+        <v>0.006582926061738873</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.0501611098589074</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8258,10 +8258,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08914549413665265</v>
+        <v>0.08898245508343054</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00670207672460111</v>
+        <v>0.006776456503653672</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8536,10 +8536,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08883627633986334</v>
+        <v>0.0886630429028341</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006843144468492979</v>
+        <v>0.006922175010661278</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8968,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08858175064759442</v>
+        <v>0.08842056710717762</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006959261217088002</v>
+        <v>0.007032794495687074</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08848304625472879</v>
+        <v>0.08831908702349692</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007004290986261538</v>
+        <v>0.007079090558214642</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -9358,22 +9358,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
       </c>
-      <c r="G11">
-        <v>0.07999999999999997</v>
-      </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08841913667071914</v>
+        <v>0.08825337344244102</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007033447072757595</v>
+        <v>0.007109069643244243</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -9645,13 +9645,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.101752010790663</v>
+        <v>0.1018559198485596</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009508784391795801</v>
+        <v>0.000903474258308978</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9914,7 +9914,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -9926,7 +9926,7 @@
         <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -10080,7 +10080,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08832165793319567</v>
+        <v>0.08816889972346173</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00707791768771781</v>
+        <v>0.007147607260025357</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10164,7 +10164,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10198,10 +10198,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08816912223848027</v>
+        <v>0.08804102580901625</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007147505746813714</v>
+        <v>0.007205944408794757</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10470,7 +10470,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -10479,13 +10479,13 @@
         <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10636,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08789531454588927</v>
+        <v>0.08780147395221573</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007272419105149199</v>
+        <v>0.007315229968470938</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10720,7 +10720,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -10748,7 +10748,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -10760,10 +10760,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08741357748495127</v>
+        <v>0.08736605635916214</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007492191579570921</v>
+        <v>0.007513871114422668</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11026,13 +11026,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -11041,7 +11041,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08669618410056031</v>
+        <v>0.08669899190128293</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00781947243878984</v>
+        <v>0.007818191496627559</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11276,7 +11276,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -11470,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08571830428662802</v>
+        <v>0.08575973942173282</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008265589384777974</v>
+        <v>0.008246686329754047</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11582,7 +11582,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -11591,13 +11591,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0840996460465885</v>
+        <v>0.08417829313937104</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009004034805530857</v>
+        <v>0.008968155344330089</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11860,13 +11860,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -11875,7 +11875,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.080770447491133</v>
+        <v>0.08093483036019121</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01052284301793841</v>
+        <v>0.0104478501788674</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12153,7 +12153,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12304,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07847948798586968</v>
+        <v>0.07878273960438648</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01156799789618537</v>
+        <v>0.01142965197269745</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12391,7 +12391,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12416,7 +12416,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -12425,13 +12425,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12582,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07928667960987691</v>
+        <v>0.07968789830877367</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01119975032935888</v>
+        <v>0.01101671100481716</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12694,13 +12694,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -12709,7 +12709,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12860,7 +12860,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1015648195126475</v>
+        <v>0.1016817611052861</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12888,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001036276665090457</v>
+        <v>0.0009829269329213151</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12978,16 +12978,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999995</v>
       </c>
-      <c r="G11">
-        <v>0.07999999999999996</v>
-      </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08094797036146843</v>
+        <v>0.08138275626631535</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01044185560043704</v>
+        <v>0.01024350263592598</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08374061343677669</v>
+        <v>0.08412376011462838</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009167828483565083</v>
+        <v>0.008993033766102462</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13500,7 +13500,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -13537,7 +13537,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08714702133571135</v>
+        <v>0.0873781194132906</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13722,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007613796723208244</v>
+        <v>0.007508367848284646</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -13806,7 +13806,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -13972,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08919319795009553</v>
+        <v>0.08924113613203762</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00668031384611448</v>
+        <v>0.006658444046759263</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14250,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08943660707764721</v>
+        <v>0.08937059255687968</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006569268567275637</v>
+        <v>0.006599384943517478</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14362,7 +14362,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14374,7 +14374,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -14528,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08912490002231745</v>
+        <v>0.0889955837675058</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006711471931723347</v>
+        <v>0.006770467088225462</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14615,7 +14615,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14640,7 +14640,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -14652,7 +14652,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -14806,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08884756795964377</v>
+        <v>0.08868921639054274</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14834,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006837993137153543</v>
+        <v>0.006910234446763678</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14893,7 +14893,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14927,13 +14927,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0886502058671548</v>
+        <v>0.0884865589543076</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006928031373653136</v>
+        <v>0.007002688463348244</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15171,7 +15171,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15205,7 +15205,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -15362,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08851021860319623</v>
+        <v>0.08834923164988542</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006991894733735498</v>
+        <v>0.007065338327653396</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15449,7 +15449,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.05444909143351602</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15474,7 +15474,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -15483,13 +15483,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15640,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08840681582026046</v>
+        <v>0.08824967593608869</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15668,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007039067947736598</v>
+        <v>0.007110756476552565</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15699,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15724,7 +15724,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -15758,16 +15758,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15918,7 +15918,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.101389763309718</v>
+        <v>0.1015183055201032</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15946,7 +15946,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001116138768300427</v>
+        <v>0.001057496737336498</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16002,10 +16002,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16045,7 +16045,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16196,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08829417208135736</v>
+        <v>0.08814650951475438</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007090456963102463</v>
+        <v>0.007157821860415138</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16255,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16280,7 +16280,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16308,13 +16308,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -16474,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08812398348829061</v>
+        <v>0.08799607201504087</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007168098422000815</v>
+        <v>0.007226452705410715</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16558,7 +16558,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -16586,19 +16586,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -16752,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08785137612115144</v>
+        <v>0.08775324133261062</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16780,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007292464181830699</v>
+        <v>0.007337234092749479</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16811,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16836,10 +16836,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16873,13 +16873,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08743046855792876</v>
+        <v>0.08736980365158174</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17058,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007484485730872729</v>
+        <v>0.007512161568294262</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17117,7 +17117,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17148,16 +17148,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08683092237728153</v>
+        <v>0.08681172953862301</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007758003710565597</v>
+        <v>0.007766759644009755</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17435,7 +17435,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17586,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08603254678159272</v>
+        <v>0.08605454459493157</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17614,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008122229331573076</v>
+        <v>0.008112193745230728</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17670,7 +17670,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -17713,7 +17713,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17864,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08499826161064403</v>
+        <v>0.08506184759783519</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008594078872969165</v>
+        <v>0.008565070414046893</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17948,10 +17948,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17976,22 +17976,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18142,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08378610736099799</v>
+        <v>0.08390129916775892</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009147073775015559</v>
+        <v>0.009094522309791636</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18229,7 +18229,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18269,7 +18269,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18420,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08286746106535509</v>
+        <v>0.08304892304448898</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00956616789478016</v>
+        <v>0.009483383422914812</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18532,7 +18532,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -18547,7 +18547,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08278050101123409</v>
+        <v>0.0830215360721438</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18726,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009605839798438173</v>
+        <v>0.009495877588648087</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18810,7 +18810,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -18825,7 +18825,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18976,7 +18976,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1012249686880393</v>
+        <v>0.1013636228167888</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19004,7 +19004,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001191319452359027</v>
+        <v>0.001128064279703791</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19060,7 +19060,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -19088,7 +19088,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -19097,13 +19097,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19254,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08360813855267922</v>
+        <v>0.08386843369311825</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009228264633152867</v>
+        <v>0.009109515814071246</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19341,7 +19341,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19532,7 +19532,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08502154264879644</v>
+        <v>0.08524901580241365</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19560,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008583457868739385</v>
+        <v>0.008479682714430876</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19619,7 +19619,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351599</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19810,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08668276956603975</v>
+        <v>0.08683030225473658</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19838,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007825592261580843</v>
+        <v>0.007758286615654697</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19894,10 +19894,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19931,13 +19931,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20088,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0880438330680806</v>
+        <v>0.08809089467135371</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007204663713741499</v>
+        <v>0.007183193816903061</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20147,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20175,7 +20175,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20200,7 +20200,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -20366,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0886942600898494</v>
+        <v>0.08865773378790508</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0069079334689757</v>
+        <v>0.006924597073275004</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20453,7 +20453,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20484,7 +20484,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -20644,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08879562054176757</v>
+        <v>0.08870373256973287</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006861691983458304</v>
+        <v>0.006903612044464895</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20728,7 +20728,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -20762,10 +20762,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -20922,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0886893579070954</v>
+        <v>0.08856495748260654</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20950,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006910169885729307</v>
+        <v>0.006966922399342855</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20981,7 +20981,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21009,7 +21009,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21034,7 +21034,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -21043,7 +21043,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08855845325319067</v>
+        <v>0.08841870662376244</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006969889683176373</v>
+        <v>0.00703364326377435</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21284,10 +21284,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21312,22 +21312,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21478,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08844241230461082</v>
+        <v>0.08829917018469603</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007022828533996742</v>
+        <v>0.00708817678657625</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21537,7 +21537,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21590,13 +21590,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21756,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08833569372825137</v>
+        <v>0.08819568263937837</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00707151444067707</v>
+        <v>0.007135388669884565</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21815,7 +21815,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21877,7 +21877,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -22034,7 +22034,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1010628526236587</v>
+        <v>0.1012103485239706</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22062,7 +22062,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001265278156186139</v>
+        <v>0.001197989293428742</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22093,7 +22093,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22121,7 +22121,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22161,7 +22161,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22312,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08821774355774517</v>
+        <v>0.08808613874892229</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007125324294500929</v>
+        <v>0.007185363508474805</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22424,7 +22424,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
@@ -22439,7 +22439,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22590,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08805750757626785</v>
+        <v>0.08794091190818504</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22618,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00719842528879043</v>
+        <v>0.007251617207285387</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22714,10 +22714,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22868,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08782020783180942</v>
+        <v>0.08772639778898028</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22896,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00730668341598896</v>
+        <v>0.007349480341760097</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22955,7 +22955,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22980,13 +22980,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -23146,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08747634868847579</v>
+        <v>0.08741225891342413</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23174,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007463554831768821</v>
+        <v>0.007492793122924589</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23230,10 +23230,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0870087486236263</v>
+        <v>0.08697875866298077</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23452,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007676877890392615</v>
+        <v>0.007690559561148946</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23702,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08641228091978712</v>
+        <v>0.0864184369245305</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007948991443230226</v>
+        <v>0.007946183022403368</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2418568350328303</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08569669707853331</v>
+        <v>0.08574058058653808</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008275446773742557</v>
+        <v>0.008255426750533767</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24067,7 +24067,7 @@
         <v>0.05016110985890741</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.05444909143351601</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24092,13 +24092,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -24107,7 +24107,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24258,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08492116870283183</v>
+        <v>0.08500629842014376</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008629249301993795</v>
+        <v>0.00859041241328933</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24342,7 +24342,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05016110985890742</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -24536,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08428036985242993</v>
+        <v>0.08441075831491172</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008921587094492495</v>
+        <v>0.008862102787887816</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -24814,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08408061786330356</v>
+        <v>0.08425144143282813</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009012715621817104</v>
+        <v>0.008934784481350417</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24873,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2418568350328302</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0.05016110985890742</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.054449091433516</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -24941,7 +24941,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1008810729731927</v>
+        <v>0.1010367841999851</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001348207552368862</v>
+        <v>0.001277170788992638</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25176,7 +25176,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890743</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -25204,22 +25204,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.2111111111111111</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="E11">
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25370,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0844927602503608</v>
+        <v>0.08468141974569346</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008824692819416804</v>
+        <v>0.008738624780491824</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25454,7 +25454,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05016110985890741</v>
       </c>
       <c r="E10">
         <v>0.05444909143351601</v>
@@ -25491,13 +25491,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>

--- a/Recycling/SG2/SG2_Min.xlsx
+++ b/Recycling/SG2/SG2_Min.xlsx
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1024318562929905</v>
+        <v>0.1138131736588783</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0006407272376505002</v>
+        <v>0.0007119191529450001</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1007839400267433</v>
+        <v>0.1119821555852704</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001392520414550315</v>
+        <v>0.001547244905055905</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1027,13 +1027,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1003034787883494</v>
+        <v>0.1114483097648327</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001611710848061841</v>
+        <v>0.001790789831179824</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989711</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09931937863231707</v>
+        <v>0.110354865147019</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002060665566116782</v>
+        <v>0.002289628406796424</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -1740,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09810354363906948</v>
+        <v>0.1090039373767439</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002615339654164468</v>
+        <v>0.002905932949071632</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09890388872832383</v>
+        <v>0.1098932096981376</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002250215533727842</v>
+        <v>0.002500239481919824</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2102,10 +2102,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2145,7 +2145,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1011907836685122</v>
+        <v>0.1124342040761246</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001206914944046998</v>
+        <v>0.001341016604496665</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1012212236007844</v>
+        <v>0.1124680262230937</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001193027992472907</v>
+        <v>0.00132558665830323</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0998149003954064</v>
+        <v>0.1109054448837849</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001834604395336375</v>
+        <v>0.002038449328151528</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -2979,7 +2979,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09843371036011818</v>
+        <v>0.1093707892890202</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.002464714835896811</v>
+        <v>0.002738572039885346</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3214,10 +3214,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3248,10 +3248,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09670423965325191</v>
+        <v>0.1074491551702799</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003253713830385248</v>
+        <v>0.003615237589316942</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3492,10 +3492,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3526,16 +3526,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1022334483109255</v>
+        <v>0.1135927203454728</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0007312426177180787</v>
+        <v>0.0008124917974645319</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3807,13 +3807,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0951459410488143</v>
+        <v>0.1057177122764603</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.003964622680782517</v>
+        <v>0.004405136311980575</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4048,10 +4048,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989714</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4082,16 +4082,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09387933498597016</v>
+        <v>0.1043103722066335</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.004542458955215736</v>
+        <v>0.005047176616906373</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4326,10 +4326,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4360,7 +4360,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -4369,7 +4369,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09146820555241199</v>
+        <v>0.10163133950268</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.005642436359346474</v>
+        <v>0.006269373732607193</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4604,10 +4604,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4641,7 +4641,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08517690004934061</v>
+        <v>0.09464100005482289</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008512582523855519</v>
+        <v>0.009458425026506134</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4919,13 +4919,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07749236535427188</v>
+        <v>0.08610262817141319</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01201833149286056</v>
+        <v>0.01335370165873396</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5160,10 +5160,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -5354,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07137295814289195</v>
+        <v>0.07930328682543551</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01481005621966594</v>
+        <v>0.01645561802185104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5438,10 +5438,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -5481,7 +5481,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06745315496842744</v>
+        <v>0.07494794996491937</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01659830319659742</v>
+        <v>0.01844255910733046</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5716,10 +5716,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06925412576136213</v>
+        <v>0.07694902862373569</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01577668526511867</v>
+        <v>0.0175296502945763</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5994,10 +5994,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6031,13 +6031,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.06962480119212572</v>
+        <v>0.07736089021347302</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01560758003483467</v>
+        <v>0.01734175559426074</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6272,10 +6272,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6306,16 +6306,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07015803577832022</v>
+        <v>0.07795337308702245</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01536431395888231</v>
+        <v>0.01707145995431368</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6550,10 +6550,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6587,13 +6587,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1020404116252024</v>
+        <v>0.1133782351391137</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0008193075674915977</v>
+        <v>0.0009103417416573308</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766591</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6862,16 +6862,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07592654987730486</v>
+        <v>0.08436283319700541</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01273266960334523</v>
+        <v>0.01414741067038358</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7106,10 +7106,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -7149,7 +7149,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08363190423608174</v>
+        <v>0.09292433804009083</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009217422529708464</v>
+        <v>0.01024158058856496</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7384,10 +7384,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08977770771662369</v>
+        <v>0.09975300857402633</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00641365560424404</v>
+        <v>0.0071262840047156</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7662,10 +7662,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.06405775462766591</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7702,10 +7702,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.09030268662288889</v>
+        <v>0.1003363184698765</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00617415583849119</v>
+        <v>0.0068601731538791</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7974,7 +7974,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -7983,7 +7983,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08940667011097381</v>
+        <v>0.09934074456774866</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006582926061738873</v>
+        <v>0.007314362290820969</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -8261,7 +8261,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08898245508343054</v>
+        <v>0.09886939453714505</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006776456503653672</v>
+        <v>0.007529396115170745</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8496,10 +8496,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0886630429028341</v>
+        <v>0.09851449211426012</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006922175010661278</v>
+        <v>0.00769130556740142</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8774,10 +8774,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8808,10 +8808,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -8968,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08842056710717762</v>
+        <v>0.09824507456353071</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007032794495687074</v>
+        <v>0.007814216106318972</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9052,10 +9052,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9086,16 +9086,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08831908702349692</v>
+        <v>0.09813231891499659</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007079090558214642</v>
+        <v>0.007865656175794045</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9330,10 +9330,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9370,7 +9370,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08825337344244102</v>
+        <v>0.09805930382493447</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007109069643244243</v>
+        <v>0.00789896627027138</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9608,10 +9608,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9651,7 +9651,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1018559198485596</v>
+        <v>0.1131732442761774</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.000903474258308978</v>
+        <v>0.001003860287009976</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9923,10 +9923,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -10080,7 +10080,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08816889972346173</v>
+        <v>0.09796544413717968</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007147607260025357</v>
+        <v>0.007941785844472617</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10164,10 +10164,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10201,13 +10201,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08804102580901625</v>
+        <v>0.09782336201001807</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007205944408794757</v>
+        <v>0.008006604898660841</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10476,16 +10476,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -10636,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08780147395221573</v>
+        <v>0.09755719328023969</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007315229968470938</v>
+        <v>0.008128033298301043</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10720,10 +10720,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -10914,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08736605635916214</v>
+        <v>0.09707339595462459</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007513871114422668</v>
+        <v>0.008348745682691854</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -11041,7 +11041,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08669899190128293</v>
+        <v>0.0963322132236477</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007818191496627559</v>
+        <v>0.008686879440697287</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11276,10 +11276,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11310,7 +11310,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -11470,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08575973942173282</v>
+        <v>0.09528859935748089</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008246686329754047</v>
+        <v>0.009162984810837828</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11529,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11554,10 +11554,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08417829313937104</v>
+        <v>0.09353143682152337</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008968155344330089</v>
+        <v>0.009964617049255655</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -11832,10 +11832,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11866,7 +11866,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -12026,7 +12026,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08093483036019121</v>
+        <v>0.08992758928910134</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0104478501788674</v>
+        <v>0.01160872242096377</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12110,10 +12110,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12153,7 +12153,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12304,7 +12304,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07878273960438648</v>
+        <v>0.0875363773382072</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01142965197269745</v>
+        <v>0.01269961330299716</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12388,10 +12388,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12582,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.07968789830877367</v>
+        <v>0.08854210923197073</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01101671100481716</v>
+        <v>0.0122407900053524</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12666,10 +12666,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -12709,7 +12709,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12860,7 +12860,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1016817611052861</v>
+        <v>0.1129797345614289</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -12888,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.0009829269329213151</v>
+        <v>0.001092141036579239</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -12944,10 +12944,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -12978,16 +12978,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
+        <v>0.07999999999999997</v>
+      </c>
+      <c r="G11">
         <v>0.07999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08138275626631535</v>
+        <v>0.09042528474035037</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.01024350263592598</v>
+        <v>0.01138166959547332</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13222,10 +13222,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08412376011462838</v>
+        <v>0.09347084457180929</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008993033766102462</v>
+        <v>0.009992259740113845</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13500,10 +13500,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0873781194132906</v>
+        <v>0.09708679934810066</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -13722,7 +13722,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007508367848284646</v>
+        <v>0.008342630942538495</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13778,10 +13778,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13812,7 +13812,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -13821,7 +13821,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08924113613203762</v>
+        <v>0.09915681792448623</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006658444046759263</v>
+        <v>0.007398271163065847</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14056,10 +14056,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14250,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08937059255687968</v>
+        <v>0.09930065839653297</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006599384943517478</v>
+        <v>0.007332649937241642</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14334,10 +14334,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14377,7 +14377,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -14528,7 +14528,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0889955837675058</v>
+        <v>0.09888398196389532</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006770467088225462</v>
+        <v>0.007522741209139401</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14612,10 +14612,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08868921639054274</v>
+        <v>0.0985435737672697</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -14834,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006910234446763678</v>
+        <v>0.007678038274181865</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -14865,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14890,10 +14890,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14933,7 +14933,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0884865589543076</v>
+        <v>0.09831839883811955</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007002688463348244</v>
+        <v>0.007780764959275826</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15168,10 +15168,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15205,13 +15205,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -15362,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08834923164988542</v>
+        <v>0.09816581294431713</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007065338327653396</v>
+        <v>0.007850375919614886</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15446,10 +15446,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351602</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15640,7 +15640,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08824967593608869</v>
+        <v>0.09805519548454299</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15668,7 +15668,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007110756476552565</v>
+        <v>0.007900840529502851</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15699,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -15724,10 +15724,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15758,10 +15758,10 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -15918,7 +15918,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1015183055201032</v>
+        <v>0.1127981172445591</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -15946,7 +15946,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001057496737336498</v>
+        <v>0.001174996374818332</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16002,10 +16002,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16039,7 +16039,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -16196,7 +16196,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08814650951475438</v>
+        <v>0.09794056612750487</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007157821860415138</v>
+        <v>0.007953135400461263</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16255,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16280,10 +16280,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16317,7 +16317,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -16474,7 +16474,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08799607201504087</v>
+        <v>0.09777341335004541</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007226452705410715</v>
+        <v>0.008029391894900794</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16533,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16558,10 +16558,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16601,7 +16601,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08775324133261062</v>
+        <v>0.09750360148067846</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -16780,7 +16780,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007337234092749479</v>
+        <v>0.008152482325277197</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -16811,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -16836,10 +16836,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -16873,7 +16873,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08736980365158174</v>
+        <v>0.0970775596128686</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17058,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007512161568294262</v>
+        <v>0.008346846186993623</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17114,10 +17114,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17148,16 +17148,16 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08681172953862301</v>
+        <v>0.09645747726513668</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007766759644009755</v>
+        <v>0.008629732937788617</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17392,10 +17392,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17435,7 +17435,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17586,7 +17586,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08605454459493157</v>
+        <v>0.09561616066103507</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17614,7 +17614,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008112193745230728</v>
+        <v>0.009013548605811921</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17645,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17670,10 +17670,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17713,7 +17713,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -17864,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08506184759783519</v>
+        <v>0.09451316399759466</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008565070414046893</v>
+        <v>0.009516744904496549</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -17948,10 +17948,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989711</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -17985,7 +17985,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -18142,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08390129916775892</v>
+        <v>0.09322366574195436</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009094522309791636</v>
+        <v>0.01010502478865737</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18201,7 +18201,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18226,10 +18226,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989714</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18263,7 +18263,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -18420,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08304892304448898</v>
+        <v>0.0922765811605433</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009483383422914812</v>
+        <v>0.01053709269212757</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18479,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18504,10 +18504,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18547,7 +18547,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0830215360721438</v>
+        <v>0.09224615119127089</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -18726,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009495877588648087</v>
+        <v>0.01055097509849788</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18782,10 +18782,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -18825,7 +18825,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -18976,7 +18976,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1013636228167888</v>
+        <v>0.1126262475742098</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19004,7 +19004,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001128064279703791</v>
+        <v>0.001253404755226434</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19035,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19060,10 +19060,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19097,13 +19097,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19254,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08386843369311825</v>
+        <v>0.09318714854790917</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.009109515814071246</v>
+        <v>0.01012168423785694</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19338,10 +19338,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19532,7 +19532,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08524901580241365</v>
+        <v>0.09472112866934851</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19560,7 +19560,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008479682714430876</v>
+        <v>0.009421869682700973</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19616,10 +19616,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19659,7 +19659,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -19810,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08683030225473658</v>
+        <v>0.09647811361637398</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19838,7 +19838,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007758286615654697</v>
+        <v>0.008620318461838552</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -19894,10 +19894,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -19937,7 +19937,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20088,7 +20088,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08809089467135371</v>
+        <v>0.09787877185705968</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007183193816903061</v>
+        <v>0.007981326463225623</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20147,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20172,10 +20172,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989711</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20206,7 +20206,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -20215,7 +20215,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20366,7 +20366,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08865773378790508</v>
+        <v>0.09850859309767229</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006924597073275004</v>
+        <v>0.007693996748083337</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20425,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20450,10 +20450,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20487,7 +20487,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
@@ -20644,7 +20644,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08870373256973287</v>
+        <v>0.09855970285525872</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006903612044464895</v>
+        <v>0.007670680049405439</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -20728,10 +20728,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -20762,7 +20762,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -20771,7 +20771,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -20922,7 +20922,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08856495748260654</v>
+        <v>0.09840550831400724</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -20950,7 +20950,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.006966922399342855</v>
+        <v>0.007741024888158728</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20981,7 +20981,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21006,10 +21006,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21040,7 +21040,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08841870662376244</v>
+        <v>0.09824300735973603</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00703364326377435</v>
+        <v>0.007815159181971501</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21259,7 +21259,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21284,10 +21284,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21318,7 +21318,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -21327,7 +21327,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21478,7 +21478,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08829917018469603</v>
+        <v>0.09811018909410671</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00708817678657625</v>
+        <v>0.007875751985084722</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21537,7 +21537,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21562,10 +21562,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21605,7 +21605,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21756,7 +21756,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08819568263937837</v>
+        <v>0.09799520293264263</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007135388669884565</v>
+        <v>0.007928209633205072</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -21815,7 +21815,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -21840,10 +21840,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -21880,10 +21880,10 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22034,7 +22034,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1012103485239706</v>
+        <v>0.1124559428044117</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22062,7 +22062,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001197989293428742</v>
+        <v>0.001331099214920824</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22093,7 +22093,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22118,10 +22118,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22155,13 +22155,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -22312,7 +22312,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08808613874892229</v>
+        <v>0.09787348749880255</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007185363508474805</v>
+        <v>0.007983737231638671</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22371,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22396,10 +22396,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22590,7 +22590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08794091190818504</v>
+        <v>0.09771212434242782</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22618,7 +22618,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007251617207285387</v>
+        <v>0.008057352452539319</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22674,10 +22674,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -22868,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08772639778898028</v>
+        <v>0.09747377532108918</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -22896,7 +22896,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007349480341760097</v>
+        <v>0.008166089268622329</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -22927,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798004</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -22952,10 +22952,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999997</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -22995,7 +22995,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23146,7 +23146,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08741225891342413</v>
+        <v>0.09712473212602682</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23174,7 +23174,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007492793122924589</v>
+        <v>0.008325325692138433</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23230,10 +23230,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08697875866298077</v>
+        <v>0.09664306518108975</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23452,7 +23452,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007690559561148946</v>
+        <v>0.008545066179054385</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23483,7 +23483,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23508,10 +23508,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="H11">
-        <v>0.04000000000000004</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="I11">
         <v>0.09999999999999998</v>
@@ -23702,7 +23702,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0864184369245305</v>
+        <v>0.09602048547170056</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.007946183022403368</v>
+        <v>0.008829092247114853</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -23823,13 +23823,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999996</v>
+        <v>0.07999999999999995</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08574058058653808</v>
+        <v>0.09526731176282008</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008255426750533767</v>
+        <v>0.009172696389481963</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24039,7 +24039,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24064,10 +24064,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -24258,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08500629842014376</v>
+        <v>0.09445144268904862</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24286,7 +24286,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.00859041241328933</v>
+        <v>0.009544902681432588</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24317,7 +24317,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24342,10 +24342,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989713</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24385,7 +24385,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999996</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08441075831491172</v>
+        <v>0.09378973146101303</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008862102787887816</v>
+        <v>0.009846780875430908</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24595,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24620,10 +24620,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -24814,7 +24814,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08425144143282813</v>
+        <v>0.09361271270314238</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008934784481350417</v>
+        <v>0.009927538312611573</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -24873,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890742</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.054449091433516</v>
+        <v>0.06405775462766589</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0.2764705882352941</v>
       </c>
       <c r="F11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11">
         <v>0.07999999999999996</v>
@@ -24941,7 +24941,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.1010367841999851</v>
+        <v>0.112263093555539</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.001277170788992638</v>
+        <v>0.001419078654436264</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328302</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25176,10 +25176,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25370,7 +25370,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.08468141974569346</v>
+        <v>0.09409046638410384</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.008738624780491824</v>
+        <v>0.009709583089435359</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -25429,7 +25429,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2418568350328303</v>
+        <v>0.2845374529798003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -25454,10 +25454,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.05016110985890741</v>
+        <v>0.05573456650989712</v>
       </c>
       <c r="E10">
-        <v>0.05444909143351601</v>
+        <v>0.0640577546276659</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -25491,13 +25491,13 @@
         <v>0.07999999999999996</v>
       </c>
       <c r="G11">
-        <v>0.07999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="H11">
         <v>0.04000000000000004</v>
       </c>
       <c r="I11">
-        <v>0.09999999999999999</v>
+        <v>0.09999999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
